--- a/exploration/Dataset - Group 56.xlsx
+++ b/exploration/Dataset - Group 56.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dale Encinares\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dale Encinares\Desktop\Group-56-Portfolio\exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FC1CF2-F9CB-4ECF-93AA-41077B20893A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2151109-6663-428F-B464-2501A4C11DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4892,12 +4892,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy&quot; &quot;hh&quot;:&quot;mm&quot;:&quot;ss"/>
     <numFmt numFmtId="165" formatCode="00"/>
-    <numFmt numFmtId="170" formatCode="m/d/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="173" formatCode="m&quot;/&quot;yyyy&quot; ::&quot;"/>
-    <numFmt numFmtId="174" formatCode="mm/dd/yy\ hh:mm"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="m&quot;/&quot;yyyy&quot; ::&quot;"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -5126,7 +5125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5152,10 +5151,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5183,9 +5182,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5218,6 +5214,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5447,9 +5452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5582,7 +5587,7 @@
       <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="8">
@@ -5625,7 +5630,7 @@
       <c r="Q2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="32" t="s">
         <v>1048</v>
       </c>
       <c r="S2" s="8"/>
@@ -5713,7 +5718,7 @@
       <c r="Q3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="32" t="s">
         <v>1051</v>
       </c>
       <c r="S3" s="8"/>
@@ -5797,7 +5802,7 @@
       <c r="Q4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="32" t="s">
         <v>1054</v>
       </c>
       <c r="S4" s="8"/>
@@ -5883,7 +5888,7 @@
       <c r="Q5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="32" t="s">
         <v>1056</v>
       </c>
       <c r="S5" s="8"/>
@@ -5971,7 +5976,7 @@
       <c r="Q6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="32" t="s">
         <v>1059</v>
       </c>
       <c r="S6" s="8"/>
@@ -6057,7 +6062,7 @@
       <c r="Q7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="32" t="s">
         <v>1062</v>
       </c>
       <c r="S7" s="8"/>
@@ -6143,7 +6148,7 @@
       <c r="Q8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="32" t="s">
         <v>1065</v>
       </c>
       <c r="S8" s="8"/>
@@ -6229,7 +6234,7 @@
       <c r="Q9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="32" t="s">
         <v>1068</v>
       </c>
       <c r="S9" s="8"/>
@@ -6317,7 +6322,7 @@
       <c r="Q10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="32" t="s">
         <v>1071</v>
       </c>
       <c r="S10" s="8"/>
@@ -6401,7 +6406,7 @@
       <c r="Q11" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="32" t="s">
         <v>1074</v>
       </c>
       <c r="S11" s="8"/>
@@ -6487,7 +6492,7 @@
       <c r="Q12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="32" t="s">
         <v>1077</v>
       </c>
       <c r="S12" s="8"/>
@@ -6575,7 +6580,7 @@
       <c r="Q13" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="32" t="s">
         <v>1079</v>
       </c>
       <c r="S13" s="8"/>
@@ -6659,7 +6664,7 @@
       <c r="Q14" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="32" t="s">
         <v>1081</v>
       </c>
       <c r="S14" s="8"/>
@@ -6745,7 +6750,7 @@
       <c r="Q15" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="32" t="s">
         <v>1083</v>
       </c>
       <c r="S15" s="8"/>
@@ -6833,7 +6838,7 @@
       <c r="Q16" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="32" t="s">
         <v>1087</v>
       </c>
       <c r="S16" s="8"/>
@@ -6917,7 +6922,7 @@
       <c r="Q17" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="32" t="s">
         <v>1089</v>
       </c>
       <c r="S17" s="8"/>
@@ -7001,7 +7006,7 @@
       <c r="Q18" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="32" t="s">
         <v>1091</v>
       </c>
       <c r="S18" s="8"/>
@@ -7089,7 +7094,7 @@
       <c r="Q19" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="32" t="s">
         <v>1094</v>
       </c>
       <c r="S19" s="8"/>
@@ -7175,7 +7180,7 @@
       <c r="Q20" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="R20" s="15" t="s">
+      <c r="R20" s="33" t="s">
         <v>1097</v>
       </c>
       <c r="S20" s="8"/>
@@ -7257,7 +7262,7 @@
       <c r="Q21" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="32" t="s">
         <v>1099</v>
       </c>
       <c r="S21" s="8"/>
@@ -7343,7 +7348,7 @@
       <c r="Q22" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="32" t="s">
         <v>1102</v>
       </c>
       <c r="S22" s="8"/>
@@ -7431,7 +7436,7 @@
       <c r="Q23" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="32" t="s">
         <v>1105</v>
       </c>
       <c r="S23" s="8"/>
@@ -7513,7 +7518,7 @@
       <c r="Q24" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="32" t="s">
         <v>1107</v>
       </c>
       <c r="S24" s="8"/>
@@ -7597,7 +7602,7 @@
       <c r="Q25" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="32" t="s">
         <v>1109</v>
       </c>
       <c r="S25" s="8"/>
@@ -7683,7 +7688,7 @@
       <c r="Q26" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="32" t="s">
         <v>243</v>
       </c>
       <c r="S26" s="8"/>
@@ -7771,7 +7776,7 @@
       <c r="Q27" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="32" t="s">
         <v>253</v>
       </c>
       <c r="S27" s="8"/>
@@ -7859,7 +7864,7 @@
       <c r="Q28" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="32" t="s">
         <v>1116</v>
       </c>
       <c r="S28" s="8"/>
@@ -7945,7 +7950,7 @@
       <c r="Q29" s="16" t="s">
         <v>1122</v>
       </c>
-      <c r="R29" s="16" t="s">
+      <c r="R29" s="34" t="s">
         <v>1123</v>
       </c>
       <c r="S29" s="16"/>
@@ -8029,7 +8034,7 @@
       <c r="Q30" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="33">
         <v>44291.354861111111</v>
       </c>
       <c r="S30" s="8"/>
@@ -8115,7 +8120,7 @@
       <c r="Q31" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="R31" s="32" t="s">
         <v>285</v>
       </c>
       <c r="S31" s="8"/>
@@ -8199,7 +8204,7 @@
       <c r="Q32" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="33">
         <v>44383.384722222225</v>
       </c>
       <c r="S32" s="8"/>
@@ -8287,7 +8292,7 @@
       <c r="Q33" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R33" s="32" t="s">
         <v>1132</v>
       </c>
       <c r="S33" s="8"/>
@@ -8373,7 +8378,7 @@
       <c r="Q34" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="R34" s="15" t="s">
+      <c r="R34" s="33" t="s">
         <v>1135</v>
       </c>
       <c r="S34" s="8"/>
@@ -8459,7 +8464,7 @@
       <c r="Q35" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="R35" s="33" t="s">
         <v>1138</v>
       </c>
       <c r="S35" s="8"/>
@@ -8541,7 +8546,7 @@
       <c r="Q36" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="R36" s="15" t="s">
+      <c r="R36" s="33" t="s">
         <v>1140</v>
       </c>
       <c r="S36" s="8"/>
@@ -8629,7 +8634,7 @@
       <c r="Q37" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="R37" s="15" t="s">
+      <c r="R37" s="33" t="s">
         <v>1143</v>
       </c>
       <c r="S37" s="8"/>
@@ -8715,7 +8720,7 @@
       <c r="Q38" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="R38" s="15" t="s">
+      <c r="R38" s="33" t="s">
         <v>1145</v>
       </c>
       <c r="S38" s="8"/>
@@ -8799,7 +8804,7 @@
       <c r="Q39" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="R39" s="15" t="s">
+      <c r="R39" s="33" t="s">
         <v>1147</v>
       </c>
       <c r="S39" s="8"/>
@@ -8885,7 +8890,7 @@
       <c r="Q40" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="R40" s="15" t="s">
+      <c r="R40" s="33" t="s">
         <v>1150</v>
       </c>
       <c r="S40" s="8"/>
@@ -8971,7 +8976,7 @@
       <c r="Q41" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="R41" s="15" t="s">
+      <c r="R41" s="33" t="s">
         <v>1153</v>
       </c>
       <c r="S41" s="8"/>
@@ -9057,7 +9062,7 @@
       <c r="Q42" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="R42" s="8" t="s">
+      <c r="R42" s="32" t="s">
         <v>1157</v>
       </c>
       <c r="S42" s="8"/>
@@ -9143,7 +9148,7 @@
       <c r="Q43" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="R43" s="8" t="s">
+      <c r="R43" s="32" t="s">
         <v>1161</v>
       </c>
       <c r="S43" s="8"/>
@@ -9229,7 +9234,7 @@
       <c r="Q44" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="R44" s="8" t="s">
+      <c r="R44" s="32" t="s">
         <v>390</v>
       </c>
       <c r="S44" s="8"/>
@@ -9317,7 +9322,7 @@
       <c r="Q45" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="R45" s="8" t="s">
+      <c r="R45" s="32" t="s">
         <v>1167</v>
       </c>
       <c r="S45" s="8"/>
@@ -9403,7 +9408,7 @@
       <c r="Q46" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="R46" s="8" t="s">
+      <c r="R46" s="32" t="s">
         <v>406</v>
       </c>
       <c r="S46" s="8"/>
@@ -9487,7 +9492,7 @@
       <c r="Q47" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="R47" s="8" t="s">
+      <c r="R47" s="32" t="s">
         <v>414</v>
       </c>
       <c r="S47" s="8"/>
@@ -9573,7 +9578,7 @@
       <c r="Q48" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="R48" s="8" t="s">
+      <c r="R48" s="32" t="s">
         <v>422</v>
       </c>
       <c r="S48" s="8"/>
@@ -9659,7 +9664,7 @@
       <c r="Q49" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="R49" s="8" t="s">
+      <c r="R49" s="32" t="s">
         <v>426</v>
       </c>
       <c r="S49" s="8"/>
@@ -9745,7 +9750,7 @@
       <c r="Q50" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="R50" s="8" t="s">
+      <c r="R50" s="32" t="s">
         <v>435</v>
       </c>
       <c r="S50" s="8"/>
@@ -9831,7 +9836,7 @@
       <c r="Q51" s="8" t="s">
         <v>1180</v>
       </c>
-      <c r="R51" s="8" t="s">
+      <c r="R51" s="32" t="s">
         <v>441</v>
       </c>
       <c r="S51" s="8"/>
@@ -9917,7 +9922,7 @@
       <c r="Q52" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="R52" s="8" t="s">
+      <c r="R52" s="32" t="s">
         <v>449</v>
       </c>
       <c r="S52" s="8"/>
@@ -10003,7 +10008,7 @@
       <c r="Q53" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="R53" s="8" t="s">
+      <c r="R53" s="32" t="s">
         <v>456</v>
       </c>
       <c r="S53" s="8"/>
@@ -10091,7 +10096,7 @@
       <c r="Q54" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="R54" s="8" t="s">
+      <c r="R54" s="32" t="s">
         <v>464</v>
       </c>
       <c r="S54" s="8"/>
@@ -10177,7 +10182,7 @@
       <c r="Q55" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="R55" s="8" t="s">
+      <c r="R55" s="32" t="s">
         <v>473</v>
       </c>
       <c r="S55" s="8"/>
@@ -10261,7 +10266,7 @@
       <c r="Q56" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="R56" s="8" t="s">
+      <c r="R56" s="32" t="s">
         <v>481</v>
       </c>
       <c r="S56" s="8"/>
@@ -10347,7 +10352,7 @@
       <c r="Q57" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="R57" s="8" t="s">
+      <c r="R57" s="32" t="s">
         <v>489</v>
       </c>
       <c r="S57" s="8"/>
@@ -10420,7 +10425,7 @@
       <c r="L58" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M58" s="21" t="s">
+      <c r="M58" s="20" t="s">
         <v>176</v>
       </c>
       <c r="N58" s="15">
@@ -10433,7 +10438,7 @@
       <c r="Q58" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="R58" s="8" t="s">
+      <c r="R58" s="32" t="s">
         <v>498</v>
       </c>
       <c r="S58" s="8"/>
@@ -10521,7 +10526,7 @@
       <c r="Q59" s="8" t="s">
         <v>1197</v>
       </c>
-      <c r="R59" s="8" t="s">
+      <c r="R59" s="32" t="s">
         <v>1198</v>
       </c>
       <c r="S59" s="8"/>
@@ -10607,7 +10612,7 @@
       <c r="Q60" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="R60" s="15" t="s">
+      <c r="R60" s="33" t="s">
         <v>1202</v>
       </c>
       <c r="S60" s="8"/>
@@ -10693,7 +10698,7 @@
       <c r="Q61" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="R61" s="15" t="s">
+      <c r="R61" s="33" t="s">
         <v>1205</v>
       </c>
       <c r="S61" s="8"/>
@@ -10777,7 +10782,7 @@
       <c r="Q62" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="R62" s="15" t="s">
+      <c r="R62" s="33" t="s">
         <v>1208</v>
       </c>
       <c r="S62" s="8"/>
@@ -10848,7 +10853,7 @@
       <c r="L63" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="M63" s="21" t="s">
+      <c r="M63" s="20" t="s">
         <v>1212</v>
       </c>
       <c r="N63" s="8">
@@ -10863,7 +10868,7 @@
       <c r="Q63" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="R63" s="20">
+      <c r="R63" s="33">
         <v>44535.656944444447</v>
       </c>
       <c r="S63" s="8"/>
@@ -10949,7 +10954,7 @@
       <c r="Q64" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="R64" s="8" t="s">
+      <c r="R64" s="32" t="s">
         <v>1215</v>
       </c>
       <c r="S64" s="8"/>
@@ -10992,7 +10997,7 @@
       <c r="B65" s="16" t="s">
         <v>1217</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>1218</v>
       </c>
       <c r="D65" s="16">
@@ -11035,7 +11040,7 @@
       <c r="Q65" s="16" t="s">
         <v>1223</v>
       </c>
-      <c r="R65" s="16" t="s">
+      <c r="R65" s="34" t="s">
         <v>1224</v>
       </c>
       <c r="S65" s="16"/>
@@ -11073,16 +11078,16 @@
       <c r="A66" s="11" t="s">
         <v>1227</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>1228</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="22">
         <v>56</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F66" s="8" t="s">
@@ -11119,7 +11124,7 @@
       <c r="Q66" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="R66" s="8" t="s">
+      <c r="R66" s="32" t="s">
         <v>1229</v>
       </c>
       <c r="S66" s="8"/>
@@ -11146,7 +11151,7 @@
       </c>
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
-      <c r="AC66" s="25" t="s">
+      <c r="AC66" s="24" t="s">
         <v>1230</v>
       </c>
       <c r="AD66" s="8" t="s">
@@ -11162,7 +11167,7 @@
       <c r="B67" s="8" t="s">
         <v>1232</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="25" t="s">
         <v>550</v>
       </c>
       <c r="D67" s="8">
@@ -11205,7 +11210,7 @@
       <c r="Q67" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="R67" s="8" t="s">
+      <c r="R67" s="32" t="s">
         <v>1234</v>
       </c>
       <c r="S67" s="8"/>
@@ -11248,7 +11253,7 @@
       <c r="B68" s="8" t="s">
         <v>1237</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="25" t="s">
         <v>555</v>
       </c>
       <c r="D68" s="8">
@@ -11291,7 +11296,7 @@
       <c r="Q68" s="8" t="s">
         <v>1238</v>
       </c>
-      <c r="R68" s="8" t="s">
+      <c r="R68" s="32" t="s">
         <v>560</v>
       </c>
       <c r="S68" s="8"/>
@@ -11332,7 +11337,7 @@
       <c r="B69" s="8" t="s">
         <v>1241</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="25" t="s">
         <v>562</v>
       </c>
       <c r="D69" s="8">
@@ -11373,7 +11378,7 @@
       <c r="Q69" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="R69" s="8" t="s">
+      <c r="R69" s="32" t="s">
         <v>567</v>
       </c>
       <c r="S69" s="8"/>
@@ -11416,7 +11421,7 @@
       <c r="B70" s="8" t="s">
         <v>1244</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="25" t="s">
         <v>569</v>
       </c>
       <c r="D70" s="8">
@@ -11461,7 +11466,7 @@
       <c r="Q70" s="8" t="s">
         <v>1246</v>
       </c>
-      <c r="R70" s="8" t="s">
+      <c r="R70" s="32" t="s">
         <v>573</v>
       </c>
       <c r="S70" s="8"/>
@@ -11502,7 +11507,7 @@
       <c r="B71" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="25" t="s">
         <v>575</v>
       </c>
       <c r="D71" s="8">
@@ -11545,7 +11550,7 @@
       <c r="Q71" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="R71" s="8" t="s">
+      <c r="R71" s="32" t="s">
         <v>579</v>
       </c>
       <c r="S71" s="8"/>
@@ -11588,7 +11593,7 @@
       <c r="B72" s="8" t="s">
         <v>1252</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="25" t="s">
         <v>582</v>
       </c>
       <c r="D72" s="8">
@@ -11631,7 +11636,7 @@
       <c r="Q72" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="R72" s="8" t="s">
+      <c r="R72" s="32" t="s">
         <v>587</v>
       </c>
       <c r="S72" s="8"/>
@@ -11674,7 +11679,7 @@
       <c r="B73" s="8" t="s">
         <v>1255</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="25" t="s">
         <v>589</v>
       </c>
       <c r="D73" s="8">
@@ -11719,7 +11724,7 @@
       <c r="Q73" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="R73" s="8" t="s">
+      <c r="R73" s="32" t="s">
         <v>595</v>
       </c>
       <c r="S73" s="8"/>
@@ -11762,7 +11767,7 @@
       <c r="B74" s="8" t="s">
         <v>1259</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="26" t="s">
         <v>598</v>
       </c>
       <c r="D74" s="8">
@@ -11807,7 +11812,7 @@
       <c r="Q74" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="R74" s="8" t="s">
+      <c r="R74" s="32" t="s">
         <v>605</v>
       </c>
       <c r="S74" s="8"/>
@@ -11850,7 +11855,7 @@
       <c r="B75" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="25" t="s">
         <v>607</v>
       </c>
       <c r="D75" s="8">
@@ -11895,7 +11900,7 @@
       <c r="Q75" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="R75" s="8" t="s">
+      <c r="R75" s="32" t="s">
         <v>613</v>
       </c>
       <c r="S75" s="8"/>
@@ -11938,7 +11943,7 @@
       <c r="B76" s="8" t="s">
         <v>1266</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="25" t="s">
         <v>615</v>
       </c>
       <c r="D76" s="8">
@@ -11981,7 +11986,7 @@
       <c r="Q76" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="R76" s="8" t="s">
+      <c r="R76" s="32" t="s">
         <v>620</v>
       </c>
       <c r="S76" s="8"/>
@@ -12024,7 +12029,7 @@
       <c r="B77" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="25" t="s">
         <v>622</v>
       </c>
       <c r="D77" s="8">
@@ -12067,7 +12072,7 @@
       <c r="Q77" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="R77" s="8" t="s">
+      <c r="R77" s="32" t="s">
         <v>625</v>
       </c>
       <c r="S77" s="8"/>
@@ -12110,7 +12115,7 @@
       <c r="B78" s="8" t="s">
         <v>1270</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="25" t="s">
         <v>628</v>
       </c>
       <c r="D78" s="8">
@@ -12153,7 +12158,7 @@
       <c r="Q78" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="R78" s="8" t="s">
+      <c r="R78" s="32" t="s">
         <v>634</v>
       </c>
       <c r="S78" s="8"/>
@@ -12196,7 +12201,7 @@
       <c r="B79" s="8" t="s">
         <v>1272</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="25" t="s">
         <v>636</v>
       </c>
       <c r="D79" s="8">
@@ -12241,7 +12246,7 @@
       <c r="Q79" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="R79" s="8" t="s">
+      <c r="R79" s="32" t="s">
         <v>640</v>
       </c>
       <c r="S79" s="8"/>
@@ -12282,7 +12287,7 @@
       <c r="B80" s="8" t="s">
         <v>1274</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="25" t="s">
         <v>642</v>
       </c>
       <c r="D80" s="8">
@@ -12327,7 +12332,7 @@
       <c r="Q80" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="R80" s="8" t="s">
+      <c r="R80" s="32" t="s">
         <v>649</v>
       </c>
       <c r="S80" s="8"/>
@@ -12370,7 +12375,7 @@
       <c r="B81" s="8" t="s">
         <v>1276</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="25" t="s">
         <v>651</v>
       </c>
       <c r="D81" s="8">
@@ -12415,7 +12420,7 @@
       <c r="Q81" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="R81" s="8" t="s">
+      <c r="R81" s="32" t="s">
         <v>658</v>
       </c>
       <c r="S81" s="8"/>
@@ -12458,7 +12463,7 @@
       <c r="B82" s="8" t="s">
         <v>1278</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="25" t="s">
         <v>660</v>
       </c>
       <c r="D82" s="8">
@@ -12501,7 +12506,7 @@
       <c r="Q82" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="R82" s="8" t="s">
+      <c r="R82" s="32" t="s">
         <v>663</v>
       </c>
       <c r="S82" s="8"/>
@@ -12544,7 +12549,7 @@
       <c r="B83" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="25" t="s">
         <v>665</v>
       </c>
       <c r="D83" s="8">
@@ -12587,7 +12592,7 @@
       <c r="Q83" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="R83" s="8" t="s">
+      <c r="R83" s="32" t="s">
         <v>671</v>
       </c>
       <c r="S83" s="8"/>
@@ -12630,7 +12635,7 @@
       <c r="B84" s="8" t="s">
         <v>1285</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="25" t="s">
         <v>674</v>
       </c>
       <c r="D84" s="8">
@@ -12675,7 +12680,7 @@
       <c r="Q84" s="8" t="s">
         <v>1286</v>
       </c>
-      <c r="R84" s="8" t="s">
+      <c r="R84" s="32" t="s">
         <v>679</v>
       </c>
       <c r="S84" s="8"/>
@@ -12716,7 +12721,7 @@
       <c r="B85" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="25" t="s">
         <v>681</v>
       </c>
       <c r="D85" s="8">
@@ -12761,7 +12766,7 @@
       <c r="Q85" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="R85" s="8" t="s">
+      <c r="R85" s="32" t="s">
         <v>1291</v>
       </c>
       <c r="S85" s="8"/>
@@ -12802,7 +12807,7 @@
       <c r="B86" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="25" t="s">
         <v>684</v>
       </c>
       <c r="D86" s="8">
@@ -12847,7 +12852,7 @@
       <c r="Q86" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="R86" s="8" t="s">
+      <c r="R86" s="32" t="s">
         <v>1293</v>
       </c>
       <c r="S86" s="8"/>
@@ -12888,7 +12893,7 @@
       <c r="B87" s="8" t="s">
         <v>1296</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="25" t="s">
         <v>691</v>
       </c>
       <c r="D87" s="8">
@@ -12931,7 +12936,7 @@
       <c r="Q87" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="R87" s="8" t="s">
+      <c r="R87" s="32" t="s">
         <v>696</v>
       </c>
       <c r="S87" s="8"/>
@@ -12974,7 +12979,7 @@
       <c r="B88" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="25" t="s">
         <v>698</v>
       </c>
       <c r="D88" s="8">
@@ -13017,7 +13022,7 @@
       <c r="Q88" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="R88" s="8" t="s">
+      <c r="R88" s="32" t="s">
         <v>701</v>
       </c>
       <c r="S88" s="8"/>
@@ -13060,7 +13065,7 @@
       <c r="B89" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="25" t="s">
         <v>703</v>
       </c>
       <c r="D89" s="8">
@@ -13090,7 +13095,7 @@
       <c r="L89" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M89" s="28" t="s">
+      <c r="M89" s="27" t="s">
         <v>433</v>
       </c>
       <c r="N89" s="8">
@@ -13103,7 +13108,7 @@
       <c r="Q89" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="R89" s="8" t="s">
+      <c r="R89" s="32" t="s">
         <v>706</v>
       </c>
       <c r="S89" s="8"/>
@@ -13146,7 +13151,7 @@
       <c r="B90" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="25" t="s">
         <v>708</v>
       </c>
       <c r="D90" s="8">
@@ -13191,7 +13196,7 @@
       <c r="Q90" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="R90" s="8" t="s">
+      <c r="R90" s="32" t="s">
         <v>1306</v>
       </c>
       <c r="S90" s="8"/>
@@ -13234,7 +13239,7 @@
       <c r="B91" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="25" t="s">
         <v>715</v>
       </c>
       <c r="D91" s="8">
@@ -13277,7 +13282,7 @@
       <c r="Q91" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="R91" s="8" t="s">
+      <c r="R91" s="32" t="s">
         <v>721</v>
       </c>
       <c r="S91" s="8"/>
@@ -13320,7 +13325,7 @@
       <c r="B92" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="25" t="s">
         <v>725</v>
       </c>
       <c r="D92" s="8">
@@ -13365,7 +13370,7 @@
       <c r="Q92" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="R92" s="8" t="s">
+      <c r="R92" s="32" t="s">
         <v>727</v>
       </c>
       <c r="S92" s="8"/>
@@ -13406,7 +13411,7 @@
       <c r="B93" s="8" t="s">
         <v>1316</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="25" t="s">
         <v>729</v>
       </c>
       <c r="D93" s="8">
@@ -13447,7 +13452,7 @@
       <c r="Q93" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="R93" s="8" t="s">
+      <c r="R93" s="32" t="s">
         <v>1317</v>
       </c>
       <c r="S93" s="8"/>
@@ -13490,7 +13495,7 @@
       <c r="B94" s="8" t="s">
         <v>1320</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="25" t="s">
         <v>735</v>
       </c>
       <c r="D94" s="8">
@@ -13535,7 +13540,7 @@
       <c r="Q94" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="R94" s="8" t="s">
+      <c r="R94" s="32" t="s">
         <v>738</v>
       </c>
       <c r="S94" s="8"/>
@@ -13576,7 +13581,7 @@
       <c r="B95" s="8" t="s">
         <v>1323</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="28" t="s">
         <v>740</v>
       </c>
       <c r="D95" s="8">
@@ -13619,7 +13624,7 @@
       <c r="Q95" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="R95" s="8" t="s">
+      <c r="R95" s="32" t="s">
         <v>1324</v>
       </c>
       <c r="S95" s="8"/>
@@ -13658,7 +13663,7 @@
       <c r="B96" s="8" t="s">
         <v>1327</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="28" t="s">
         <v>747</v>
       </c>
       <c r="D96" s="8">
@@ -13703,7 +13708,7 @@
       <c r="Q96" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="R96" s="8" t="s">
+      <c r="R96" s="32" t="s">
         <v>1328</v>
       </c>
       <c r="S96" s="8"/>
@@ -13742,7 +13747,7 @@
       <c r="B97" s="8" t="s">
         <v>1331</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="28" t="s">
         <v>754</v>
       </c>
       <c r="D97" s="8">
@@ -13785,7 +13790,7 @@
       <c r="Q97" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="R97" s="8" t="s">
+      <c r="R97" s="32" t="s">
         <v>1332</v>
       </c>
       <c r="S97" s="8"/>
@@ -13824,7 +13829,7 @@
       <c r="B98" s="8" t="s">
         <v>1335</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="28" t="s">
         <v>760</v>
       </c>
       <c r="D98" s="8">
@@ -13869,7 +13874,7 @@
       <c r="Q98" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="R98" s="8" t="s">
+      <c r="R98" s="32" t="s">
         <v>1336</v>
       </c>
       <c r="S98" s="8"/>
@@ -13908,7 +13913,7 @@
       <c r="B99" s="8" t="s">
         <v>1339</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="28" t="s">
         <v>762</v>
       </c>
       <c r="D99" s="8">
@@ -13951,7 +13956,7 @@
       <c r="Q99" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="R99" s="8" t="s">
+      <c r="R99" s="32" t="s">
         <v>1340</v>
       </c>
       <c r="S99" s="8"/>
@@ -13990,7 +13995,7 @@
       <c r="B100" s="8" t="s">
         <v>1343</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="28" t="s">
         <v>768</v>
       </c>
       <c r="D100" s="8">
@@ -14035,7 +14040,7 @@
       <c r="Q100" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="R100" s="8" t="s">
+      <c r="R100" s="32" t="s">
         <v>1344</v>
       </c>
       <c r="S100" s="8"/>
@@ -14074,7 +14079,7 @@
       <c r="B101" s="8" t="s">
         <v>1347</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="28" t="s">
         <v>774</v>
       </c>
       <c r="D101" s="8">
@@ -14119,7 +14124,7 @@
       <c r="Q101" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="R101" s="8" t="s">
+      <c r="R101" s="32" t="s">
         <v>1348</v>
       </c>
       <c r="S101" s="8"/>
@@ -14158,7 +14163,7 @@
       <c r="B102" s="8" t="s">
         <v>1351</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="28" t="s">
         <v>776</v>
       </c>
       <c r="D102" s="8">
@@ -14201,7 +14206,7 @@
       <c r="Q102" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="R102" s="8" t="s">
+      <c r="R102" s="32" t="s">
         <v>1352</v>
       </c>
       <c r="S102" s="8"/>
@@ -14240,7 +14245,7 @@
       <c r="B103" s="8" t="s">
         <v>1355</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="28" t="s">
         <v>779</v>
       </c>
       <c r="D103" s="8">
@@ -14281,7 +14286,7 @@
       <c r="Q103" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="R103" s="8" t="s">
+      <c r="R103" s="32" t="s">
         <v>1356</v>
       </c>
       <c r="S103" s="8"/>
@@ -14320,7 +14325,7 @@
       <c r="B104" s="8" t="s">
         <v>1358</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="28" t="s">
         <v>785</v>
       </c>
       <c r="D104" s="8">
@@ -14363,7 +14368,7 @@
       <c r="Q104" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="R104" s="8" t="s">
+      <c r="R104" s="32" t="s">
         <v>1359</v>
       </c>
       <c r="S104" s="8"/>
@@ -14402,7 +14407,7 @@
       <c r="B105" s="8" t="s">
         <v>1362</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="28" t="s">
         <v>790</v>
       </c>
       <c r="D105" s="8">
@@ -14445,7 +14450,7 @@
       <c r="Q105" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="R105" s="8" t="s">
+      <c r="R105" s="32" t="s">
         <v>1363</v>
       </c>
       <c r="S105" s="8"/>
@@ -14484,7 +14489,7 @@
       <c r="B106" s="8" t="s">
         <v>1365</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="28" t="s">
         <v>796</v>
       </c>
       <c r="D106" s="8">
@@ -14527,7 +14532,7 @@
       <c r="Q106" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="R106" s="8" t="s">
+      <c r="R106" s="32" t="s">
         <v>1366</v>
       </c>
       <c r="S106" s="8"/>
@@ -14566,7 +14571,7 @@
       <c r="B107" s="8" t="s">
         <v>1369</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="28" t="s">
         <v>799</v>
       </c>
       <c r="D107" s="8">
@@ -14611,7 +14616,7 @@
       <c r="Q107" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="R107" s="8" t="s">
+      <c r="R107" s="32" t="s">
         <v>1370</v>
       </c>
       <c r="S107" s="8"/>
@@ -14650,7 +14655,7 @@
       <c r="B108" s="8" t="s">
         <v>1372</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="28" t="s">
         <v>807</v>
       </c>
       <c r="D108" s="8">
@@ -14693,7 +14698,7 @@
       <c r="Q108" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="R108" s="8" t="s">
+      <c r="R108" s="32" t="s">
         <v>1373</v>
       </c>
       <c r="S108" s="8"/>
@@ -14732,7 +14737,7 @@
       <c r="B109" s="8" t="s">
         <v>1375</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="28" t="s">
         <v>814</v>
       </c>
       <c r="D109" s="8">
@@ -14775,7 +14780,7 @@
       <c r="Q109" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="R109" s="8" t="s">
+      <c r="R109" s="32" t="s">
         <v>1376</v>
       </c>
       <c r="S109" s="8"/>
@@ -14814,7 +14819,7 @@
       <c r="B110" s="8" t="s">
         <v>1378</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C110" s="28" t="s">
         <v>818</v>
       </c>
       <c r="D110" s="8">
@@ -14857,7 +14862,7 @@
       <c r="Q110" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="R110" s="8" t="s">
+      <c r="R110" s="32" t="s">
         <v>1379</v>
       </c>
       <c r="S110" s="8"/>
@@ -14896,7 +14901,7 @@
       <c r="B111" s="8" t="s">
         <v>1381</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="28" t="s">
         <v>824</v>
       </c>
       <c r="D111" s="8">
@@ -14941,7 +14946,7 @@
       <c r="Q111" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="R111" s="8" t="s">
+      <c r="R111" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="S111" s="8"/>
@@ -14980,7 +14985,7 @@
       <c r="B112" s="8" t="s">
         <v>1384</v>
       </c>
-      <c r="C112" s="26" t="s">
+      <c r="C112" s="25" t="s">
         <v>832</v>
       </c>
       <c r="D112" s="8">
@@ -15025,7 +15030,7 @@
       <c r="Q112" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="R112" s="8" t="s">
+      <c r="R112" s="32" t="s">
         <v>1385</v>
       </c>
       <c r="S112" s="8"/>
@@ -15066,7 +15071,7 @@
       <c r="B113" s="8" t="s">
         <v>1387</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C113" s="25" t="s">
         <v>841</v>
       </c>
       <c r="D113" s="8">
@@ -15111,7 +15116,7 @@
       <c r="Q113" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="R113" s="8" t="s">
+      <c r="R113" s="32" t="s">
         <v>1388</v>
       </c>
       <c r="S113" s="8"/>
@@ -15150,7 +15155,7 @@
       <c r="B114" s="8" t="s">
         <v>1390</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="25" t="s">
         <v>845</v>
       </c>
       <c r="D114" s="8">
@@ -15193,7 +15198,7 @@
       <c r="Q114" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="R114" s="8" t="s">
+      <c r="R114" s="32" t="s">
         <v>1391</v>
       </c>
       <c r="S114" s="8"/>
@@ -15234,7 +15239,7 @@
       <c r="B115" s="8" t="s">
         <v>1393</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="25" t="s">
         <v>849</v>
       </c>
       <c r="D115" s="8">
@@ -15279,7 +15284,7 @@
       <c r="Q115" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="R115" s="8" t="s">
+      <c r="R115" s="32" t="s">
         <v>1394</v>
       </c>
       <c r="S115" s="8"/>
@@ -15318,7 +15323,7 @@
       <c r="B116" s="8" t="s">
         <v>1396</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="25" t="s">
         <v>855</v>
       </c>
       <c r="D116" s="8">
@@ -15361,7 +15366,7 @@
       <c r="Q116" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="R116" s="8" t="s">
+      <c r="R116" s="32" t="s">
         <v>1397</v>
       </c>
       <c r="S116" s="8"/>
@@ -15400,7 +15405,7 @@
       <c r="B117" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="25" t="s">
         <v>859</v>
       </c>
       <c r="D117" s="8">
@@ -15443,7 +15448,7 @@
       <c r="Q117" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="R117" s="8" t="s">
+      <c r="R117" s="32" t="s">
         <v>1399</v>
       </c>
       <c r="S117" s="8"/>
@@ -15482,7 +15487,7 @@
       <c r="B118" s="8" t="s">
         <v>1402</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C118" s="25" t="s">
         <v>864</v>
       </c>
       <c r="D118" s="8">
@@ -15525,7 +15530,7 @@
       <c r="Q118" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="R118" s="8" t="s">
+      <c r="R118" s="32" t="s">
         <v>1403</v>
       </c>
       <c r="S118" s="8"/>
@@ -15564,7 +15569,7 @@
       <c r="B119" s="8" t="s">
         <v>1405</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="25" t="s">
         <v>869</v>
       </c>
       <c r="D119" s="8">
@@ -15605,7 +15610,7 @@
       <c r="Q119" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="R119" s="8" t="s">
+      <c r="R119" s="32" t="s">
         <v>1406</v>
       </c>
       <c r="S119" s="8"/>
@@ -15644,7 +15649,7 @@
       <c r="B120" s="8" t="s">
         <v>1409</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="25" t="s">
         <v>874</v>
       </c>
       <c r="D120" s="8">
@@ -15685,7 +15690,7 @@
       <c r="Q120" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="R120" s="8" t="s">
+      <c r="R120" s="32" t="s">
         <v>1410</v>
       </c>
       <c r="S120" s="8"/>
@@ -15724,7 +15729,7 @@
       <c r="B121" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="25" t="s">
         <v>876</v>
       </c>
       <c r="D121" s="8">
@@ -15767,7 +15772,7 @@
       <c r="Q121" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="R121" s="8" t="s">
+      <c r="R121" s="32" t="s">
         <v>1414</v>
       </c>
       <c r="S121" s="8"/>
@@ -15806,7 +15811,7 @@
       <c r="B122" s="8" t="s">
         <v>1416</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="25" t="s">
         <v>879</v>
       </c>
       <c r="D122" s="8">
@@ -15849,7 +15854,7 @@
       <c r="Q122" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="R122" s="8" t="s">
+      <c r="R122" s="32" t="s">
         <v>1417</v>
       </c>
       <c r="S122" s="8"/>
@@ -15888,7 +15893,7 @@
       <c r="B123" s="8" t="s">
         <v>1420</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C123" s="25" t="s">
         <v>884</v>
       </c>
       <c r="D123" s="8">
@@ -15929,7 +15934,7 @@
       <c r="Q123" s="8" t="s">
         <v>887</v>
       </c>
-      <c r="R123" s="8" t="s">
+      <c r="R123" s="32" t="s">
         <v>1421</v>
       </c>
       <c r="S123" s="8"/>
@@ -15968,7 +15973,7 @@
       <c r="B124" s="8" t="s">
         <v>1423</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C124" s="25" t="s">
         <v>889</v>
       </c>
       <c r="D124" s="8">
@@ -16013,7 +16018,7 @@
       <c r="Q124" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="R124" s="8" t="s">
+      <c r="R124" s="32" t="s">
         <v>1424</v>
       </c>
       <c r="S124" s="8"/>
@@ -16052,7 +16057,7 @@
       <c r="B125" s="8" t="s">
         <v>1426</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="25" t="s">
         <v>892</v>
       </c>
       <c r="D125" s="8">
@@ -16095,7 +16100,7 @@
       <c r="Q125" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="R125" s="8" t="s">
+      <c r="R125" s="32" t="s">
         <v>1427</v>
       </c>
       <c r="S125" s="8"/>
@@ -16134,7 +16139,7 @@
       <c r="B126" s="8" t="s">
         <v>1426</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C126" s="25" t="s">
         <v>895</v>
       </c>
       <c r="D126" s="8">
@@ -16177,7 +16182,7 @@
       <c r="Q126" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="R126" s="8" t="s">
+      <c r="R126" s="32" t="s">
         <v>1429</v>
       </c>
       <c r="S126" s="8"/>
@@ -16216,7 +16221,7 @@
       <c r="B127" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="25" t="s">
         <v>900</v>
       </c>
       <c r="D127" s="8">
@@ -16259,7 +16264,7 @@
       <c r="Q127" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="R127" s="8" t="s">
+      <c r="R127" s="32" t="s">
         <v>903</v>
       </c>
       <c r="S127" s="8"/>
@@ -16300,7 +16305,7 @@
       <c r="B128" s="8" t="s">
         <v>1434</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="25" t="s">
         <v>904</v>
       </c>
       <c r="D128" s="8">
@@ -16345,7 +16350,7 @@
       <c r="Q128" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="R128" s="8" t="s">
+      <c r="R128" s="32" t="s">
         <v>910</v>
       </c>
       <c r="S128" s="8"/>
@@ -16384,7 +16389,7 @@
       <c r="B129" s="8" t="s">
         <v>1437</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="25" t="s">
         <v>911</v>
       </c>
       <c r="D129" s="8">
@@ -16427,7 +16432,7 @@
       <c r="Q129" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="R129" s="8" t="s">
+      <c r="R129" s="32" t="s">
         <v>913</v>
       </c>
       <c r="S129" s="8"/>
@@ -16468,7 +16473,7 @@
       <c r="B130" s="8" t="s">
         <v>1440</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="25" t="s">
         <v>914</v>
       </c>
       <c r="D130" s="8">
@@ -16509,7 +16514,7 @@
       <c r="Q130" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="R130" s="8" t="s">
+      <c r="R130" s="32" t="s">
         <v>919</v>
       </c>
       <c r="S130" s="8"/>
@@ -16550,7 +16555,7 @@
       <c r="B131" s="8" t="s">
         <v>1442</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="25" t="s">
         <v>921</v>
       </c>
       <c r="D131" s="8">
@@ -16593,7 +16598,7 @@
       <c r="Q131" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="R131" s="8" t="s">
+      <c r="R131" s="32" t="s">
         <v>926</v>
       </c>
       <c r="S131" s="8"/>
@@ -16634,7 +16639,7 @@
       <c r="B132" s="8" t="s">
         <v>1444</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="25" t="s">
         <v>927</v>
       </c>
       <c r="D132" s="8">
@@ -16677,7 +16682,7 @@
       <c r="Q132" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="R132" s="8" t="s">
+      <c r="R132" s="32" t="s">
         <v>933</v>
       </c>
       <c r="S132" s="8"/>
@@ -16718,7 +16723,7 @@
       <c r="B133" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="25" t="s">
         <v>935</v>
       </c>
       <c r="D133" s="8">
@@ -16761,7 +16766,7 @@
       <c r="Q133" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="R133" s="8" t="s">
+      <c r="R133" s="32" t="s">
         <v>940</v>
       </c>
       <c r="S133" s="8"/>
@@ -16802,7 +16807,7 @@
       <c r="B134" s="8" t="s">
         <v>1448</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="25" t="s">
         <v>941</v>
       </c>
       <c r="D134" s="8">
@@ -16843,7 +16848,7 @@
       <c r="Q134" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="R134" s="8" t="s">
+      <c r="R134" s="32" t="s">
         <v>946</v>
       </c>
       <c r="S134" s="8"/>
@@ -16884,7 +16889,7 @@
       <c r="B135" s="8" t="s">
         <v>1451</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="25" t="s">
         <v>948</v>
       </c>
       <c r="D135" s="8">
@@ -16927,7 +16932,7 @@
       <c r="Q135" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="R135" s="8" t="s">
+      <c r="R135" s="32" t="s">
         <v>953</v>
       </c>
       <c r="S135" s="8"/>
@@ -16968,7 +16973,7 @@
       <c r="B136" s="8" t="s">
         <v>1453</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="25" t="s">
         <v>954</v>
       </c>
       <c r="D136" s="8">
@@ -17011,7 +17016,7 @@
       <c r="Q136" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="R136" s="8" t="s">
+      <c r="R136" s="32" t="s">
         <v>956</v>
       </c>
       <c r="S136" s="8"/>
@@ -17052,7 +17057,7 @@
       <c r="B137" s="8" t="s">
         <v>1455</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="25" t="s">
         <v>957</v>
       </c>
       <c r="D137" s="8">
@@ -17095,7 +17100,7 @@
       <c r="Q137" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="R137" s="8" t="s">
+      <c r="R137" s="32" t="s">
         <v>959</v>
       </c>
       <c r="S137" s="8"/>
@@ -17136,7 +17141,7 @@
       <c r="B138" s="8" t="s">
         <v>1458</v>
       </c>
-      <c r="C138" s="26" t="s">
+      <c r="C138" s="25" t="s">
         <v>960</v>
       </c>
       <c r="D138" s="8">
@@ -17179,7 +17184,7 @@
       <c r="Q138" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="R138" s="8" t="s">
+      <c r="R138" s="32" t="s">
         <v>965</v>
       </c>
       <c r="S138" s="8"/>
@@ -17220,7 +17225,7 @@
       <c r="B139" s="8" t="s">
         <v>1461</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="25" t="s">
         <v>967</v>
       </c>
       <c r="D139" s="8">
@@ -17263,7 +17268,7 @@
       <c r="Q139" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="R139" s="8" t="s">
+      <c r="R139" s="32" t="s">
         <v>972</v>
       </c>
       <c r="S139" s="8"/>
@@ -17304,7 +17309,7 @@
       <c r="B140" s="8" t="s">
         <v>1463</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="25" t="s">
         <v>974</v>
       </c>
       <c r="D140" s="8">
@@ -17349,7 +17354,7 @@
       <c r="Q140" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="R140" s="8" t="s">
+      <c r="R140" s="32" t="s">
         <v>976</v>
       </c>
       <c r="S140" s="8"/>
@@ -17388,7 +17393,7 @@
       <c r="B141" s="8" t="s">
         <v>1466</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="25" t="s">
         <v>977</v>
       </c>
       <c r="D141" s="8">
@@ -17433,7 +17438,7 @@
       <c r="Q141" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="R141" s="8" t="s">
+      <c r="R141" s="32" t="s">
         <v>1467</v>
       </c>
       <c r="S141" s="8"/>
@@ -17474,7 +17479,7 @@
       <c r="B142" s="8" t="s">
         <v>1470</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="25" t="s">
         <v>984</v>
       </c>
       <c r="D142" s="8">
@@ -17517,7 +17522,7 @@
       <c r="Q142" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="R142" s="8" t="s">
+      <c r="R142" s="32" t="s">
         <v>1471</v>
       </c>
       <c r="S142" s="8"/>
@@ -17558,7 +17563,7 @@
       <c r="B143" s="8" t="s">
         <v>1473</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="25" t="s">
         <v>990</v>
       </c>
       <c r="D143" s="8">
@@ -17601,7 +17606,7 @@
       <c r="Q143" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="R143" s="8" t="s">
+      <c r="R143" s="32" t="s">
         <v>1474</v>
       </c>
       <c r="S143" s="8"/>
@@ -17642,7 +17647,7 @@
       <c r="B144" s="8" t="s">
         <v>1477</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="25" t="s">
         <v>996</v>
       </c>
       <c r="D144" s="8">
@@ -17687,7 +17692,7 @@
       <c r="Q144" s="8" t="s">
         <v>1000</v>
       </c>
-      <c r="R144" s="8" t="s">
+      <c r="R144" s="32" t="s">
         <v>1001</v>
       </c>
       <c r="S144" s="8"/>
@@ -17726,7 +17731,7 @@
       <c r="B145" s="8" t="s">
         <v>1479</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="25" t="s">
         <v>1002</v>
       </c>
       <c r="D145" s="8">
@@ -17769,7 +17774,7 @@
       <c r="Q145" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="R145" s="8" t="s">
+      <c r="R145" s="32" t="s">
         <v>1480</v>
       </c>
       <c r="S145" s="8"/>
@@ -17810,7 +17815,7 @@
       <c r="B146" s="8" t="s">
         <v>1482</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="25" t="s">
         <v>1009</v>
       </c>
       <c r="D146" s="8">
@@ -17855,7 +17860,7 @@
       <c r="Q146" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="R146" s="8" t="s">
+      <c r="R146" s="32" t="s">
         <v>1483</v>
       </c>
       <c r="S146" s="8"/>
@@ -17894,7 +17899,7 @@
       <c r="B147" s="8" t="s">
         <v>1485</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="25" t="s">
         <v>1015</v>
       </c>
       <c r="D147" s="8">
@@ -17939,7 +17944,7 @@
       <c r="Q147" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="R147" s="8" t="s">
+      <c r="R147" s="32" t="s">
         <v>1021</v>
       </c>
       <c r="S147" s="8"/>
@@ -17978,7 +17983,7 @@
       <c r="B148" s="8" t="s">
         <v>1487</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="25" t="s">
         <v>1022</v>
       </c>
       <c r="D148" s="8">
@@ -18019,7 +18024,7 @@
       <c r="Q148" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="R148" s="8" t="s">
+      <c r="R148" s="32" t="s">
         <v>1027</v>
       </c>
       <c r="S148" s="8"/>
@@ -18060,7 +18065,7 @@
       <c r="B149" s="8" t="s">
         <v>1490</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="25" t="s">
         <v>1028</v>
       </c>
       <c r="D149" s="8">
@@ -18103,7 +18108,7 @@
       <c r="Q149" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="R149" s="8" t="s">
+      <c r="R149" s="32" t="s">
         <v>1491</v>
       </c>
       <c r="S149" s="8"/>
@@ -18144,7 +18149,7 @@
       <c r="B150" s="8" t="s">
         <v>1493</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="25" t="s">
         <v>1030</v>
       </c>
       <c r="D150" s="8">
@@ -18187,7 +18192,7 @@
       <c r="Q150" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="R150" s="8" t="s">
+      <c r="R150" s="32" t="s">
         <v>1494</v>
       </c>
       <c r="S150" s="8"/>
@@ -18228,7 +18233,7 @@
       <c r="B151" s="8" t="s">
         <v>1496</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="25" t="s">
         <v>1035</v>
       </c>
       <c r="D151" s="8">
@@ -18271,7 +18276,7 @@
       <c r="Q151" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="R151" s="8" t="s">
+      <c r="R151" s="32" t="s">
         <v>1040</v>
       </c>
       <c r="S151" s="8"/>
@@ -18312,7 +18317,7 @@
       <c r="B152" s="8" t="s">
         <v>1498</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="25" t="s">
         <v>1041</v>
       </c>
       <c r="D152" s="8">
@@ -18355,7 +18360,7 @@
       <c r="Q152" s="8" t="s">
         <v>1042</v>
       </c>
-      <c r="R152" s="8" t="s">
+      <c r="R152" s="32" t="s">
         <v>1043</v>
       </c>
       <c r="S152" s="8"/>
@@ -18396,7 +18401,7 @@
       <c r="B153" s="8" t="s">
         <v>1500</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="25" t="s">
         <v>1045</v>
       </c>
       <c r="D153" s="8">
@@ -18439,7 +18444,7 @@
       <c r="Q153" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="R153" s="8" t="s">
+      <c r="R153" s="32" t="s">
         <v>1501</v>
       </c>
       <c r="S153" s="8"/>
@@ -18474,3392 +18479,3392 @@
       <c r="AF153" s="8"/>
     </row>
     <row r="154" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="30"/>
-      <c r="C154" s="31"/>
+      <c r="A154" s="29"/>
+      <c r="C154" s="30"/>
     </row>
     <row r="155" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="30"/>
-      <c r="C155" s="31"/>
+      <c r="A155" s="29"/>
+      <c r="C155" s="30"/>
     </row>
     <row r="156" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="30"/>
-      <c r="C156" s="31"/>
+      <c r="A156" s="29"/>
+      <c r="C156" s="30"/>
     </row>
     <row r="157" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="30"/>
-      <c r="C157" s="31"/>
+      <c r="A157" s="29"/>
+      <c r="C157" s="30"/>
     </row>
     <row r="158" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="30"/>
-      <c r="C158" s="31"/>
+      <c r="A158" s="29"/>
+      <c r="C158" s="30"/>
     </row>
     <row r="159" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="30"/>
-      <c r="C159" s="31"/>
+      <c r="A159" s="29"/>
+      <c r="C159" s="30"/>
     </row>
     <row r="160" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="30"/>
-      <c r="C160" s="31"/>
+      <c r="A160" s="29"/>
+      <c r="C160" s="30"/>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="30"/>
-      <c r="C161" s="31"/>
+      <c r="A161" s="29"/>
+      <c r="C161" s="30"/>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="30"/>
-      <c r="C162" s="31"/>
+      <c r="A162" s="29"/>
+      <c r="C162" s="30"/>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="30"/>
-      <c r="C163" s="31"/>
+      <c r="A163" s="29"/>
+      <c r="C163" s="30"/>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="30"/>
-      <c r="C164" s="31"/>
+      <c r="A164" s="29"/>
+      <c r="C164" s="30"/>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="30"/>
-      <c r="C165" s="31"/>
+      <c r="A165" s="29"/>
+      <c r="C165" s="30"/>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="30"/>
-      <c r="C166" s="31"/>
+      <c r="A166" s="29"/>
+      <c r="C166" s="30"/>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="30"/>
-      <c r="C167" s="31"/>
+      <c r="A167" s="29"/>
+      <c r="C167" s="30"/>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="30"/>
-      <c r="C168" s="31"/>
+      <c r="A168" s="29"/>
+      <c r="C168" s="30"/>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="30"/>
-      <c r="C169" s="31"/>
+      <c r="A169" s="29"/>
+      <c r="C169" s="30"/>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="30"/>
-      <c r="C170" s="31"/>
+      <c r="A170" s="29"/>
+      <c r="C170" s="30"/>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="30"/>
-      <c r="C171" s="31"/>
+      <c r="A171" s="29"/>
+      <c r="C171" s="30"/>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="30"/>
-      <c r="C172" s="31"/>
+      <c r="A172" s="29"/>
+      <c r="C172" s="30"/>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="30"/>
-      <c r="C173" s="31"/>
+      <c r="A173" s="29"/>
+      <c r="C173" s="30"/>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="30"/>
-      <c r="C174" s="31"/>
+      <c r="A174" s="29"/>
+      <c r="C174" s="30"/>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="30"/>
-      <c r="C175" s="31"/>
+      <c r="A175" s="29"/>
+      <c r="C175" s="30"/>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="30"/>
-      <c r="C176" s="31"/>
+      <c r="A176" s="29"/>
+      <c r="C176" s="30"/>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="30"/>
-      <c r="C177" s="31"/>
+      <c r="A177" s="29"/>
+      <c r="C177" s="30"/>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="30"/>
-      <c r="C178" s="31"/>
+      <c r="A178" s="29"/>
+      <c r="C178" s="30"/>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="30"/>
-      <c r="C179" s="31"/>
+      <c r="A179" s="29"/>
+      <c r="C179" s="30"/>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="30"/>
-      <c r="C180" s="31"/>
+      <c r="A180" s="29"/>
+      <c r="C180" s="30"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="30"/>
-      <c r="C181" s="31"/>
+      <c r="A181" s="29"/>
+      <c r="C181" s="30"/>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="30"/>
-      <c r="C182" s="31"/>
+      <c r="A182" s="29"/>
+      <c r="C182" s="30"/>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="30"/>
-      <c r="C183" s="31"/>
+      <c r="A183" s="29"/>
+      <c r="C183" s="30"/>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="30"/>
-      <c r="C184" s="31"/>
+      <c r="A184" s="29"/>
+      <c r="C184" s="30"/>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="30"/>
-      <c r="C185" s="31"/>
+      <c r="A185" s="29"/>
+      <c r="C185" s="30"/>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="30"/>
-      <c r="C186" s="31"/>
+      <c r="A186" s="29"/>
+      <c r="C186" s="30"/>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="30"/>
-      <c r="C187" s="31"/>
+      <c r="A187" s="29"/>
+      <c r="C187" s="30"/>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="30"/>
-      <c r="C188" s="31"/>
+      <c r="A188" s="29"/>
+      <c r="C188" s="30"/>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="30"/>
-      <c r="C189" s="31"/>
+      <c r="A189" s="29"/>
+      <c r="C189" s="30"/>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="30"/>
-      <c r="C190" s="31"/>
+      <c r="A190" s="29"/>
+      <c r="C190" s="30"/>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="30"/>
-      <c r="C191" s="31"/>
+      <c r="A191" s="29"/>
+      <c r="C191" s="30"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="30"/>
-      <c r="C192" s="31"/>
+      <c r="A192" s="29"/>
+      <c r="C192" s="30"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="30"/>
-      <c r="C193" s="31"/>
+      <c r="A193" s="29"/>
+      <c r="C193" s="30"/>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="30"/>
-      <c r="C194" s="31"/>
+      <c r="A194" s="29"/>
+      <c r="C194" s="30"/>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="30"/>
-      <c r="C195" s="31"/>
+      <c r="A195" s="29"/>
+      <c r="C195" s="30"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="30"/>
-      <c r="C196" s="31"/>
+      <c r="A196" s="29"/>
+      <c r="C196" s="30"/>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="30"/>
-      <c r="C197" s="31"/>
+      <c r="A197" s="29"/>
+      <c r="C197" s="30"/>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="30"/>
-      <c r="C198" s="31"/>
+      <c r="A198" s="29"/>
+      <c r="C198" s="30"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="30"/>
-      <c r="C199" s="31"/>
+      <c r="A199" s="29"/>
+      <c r="C199" s="30"/>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="30"/>
-      <c r="C200" s="31"/>
+      <c r="A200" s="29"/>
+      <c r="C200" s="30"/>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="30"/>
-      <c r="C201" s="31"/>
+      <c r="A201" s="29"/>
+      <c r="C201" s="30"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="30"/>
-      <c r="C202" s="31"/>
+      <c r="A202" s="29"/>
+      <c r="C202" s="30"/>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="30"/>
-      <c r="C203" s="31"/>
+      <c r="A203" s="29"/>
+      <c r="C203" s="30"/>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="30"/>
-      <c r="C204" s="31"/>
+      <c r="A204" s="29"/>
+      <c r="C204" s="30"/>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="30"/>
-      <c r="C205" s="31"/>
+      <c r="A205" s="29"/>
+      <c r="C205" s="30"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="30"/>
-      <c r="C206" s="31"/>
+      <c r="A206" s="29"/>
+      <c r="C206" s="30"/>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="30"/>
-      <c r="C207" s="31"/>
+      <c r="A207" s="29"/>
+      <c r="C207" s="30"/>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="30"/>
-      <c r="C208" s="31"/>
+      <c r="A208" s="29"/>
+      <c r="C208" s="30"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="30"/>
-      <c r="C209" s="31"/>
+      <c r="A209" s="29"/>
+      <c r="C209" s="30"/>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="30"/>
-      <c r="C210" s="31"/>
+      <c r="A210" s="29"/>
+      <c r="C210" s="30"/>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="30"/>
-      <c r="C211" s="31"/>
+      <c r="A211" s="29"/>
+      <c r="C211" s="30"/>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="30"/>
-      <c r="C212" s="31"/>
+      <c r="A212" s="29"/>
+      <c r="C212" s="30"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="30"/>
-      <c r="C213" s="31"/>
+      <c r="A213" s="29"/>
+      <c r="C213" s="30"/>
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="30"/>
-      <c r="C214" s="31"/>
+      <c r="A214" s="29"/>
+      <c r="C214" s="30"/>
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="30"/>
-      <c r="C215" s="31"/>
+      <c r="A215" s="29"/>
+      <c r="C215" s="30"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="30"/>
-      <c r="C216" s="31"/>
+      <c r="A216" s="29"/>
+      <c r="C216" s="30"/>
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="30"/>
-      <c r="C217" s="31"/>
+      <c r="A217" s="29"/>
+      <c r="C217" s="30"/>
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="30"/>
-      <c r="C218" s="31"/>
+      <c r="A218" s="29"/>
+      <c r="C218" s="30"/>
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="30"/>
-      <c r="C219" s="31"/>
+      <c r="A219" s="29"/>
+      <c r="C219" s="30"/>
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="30"/>
-      <c r="C220" s="31"/>
+      <c r="A220" s="29"/>
+      <c r="C220" s="30"/>
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="30"/>
-      <c r="C221" s="31"/>
+      <c r="A221" s="29"/>
+      <c r="C221" s="30"/>
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="30"/>
-      <c r="C222" s="31"/>
+      <c r="A222" s="29"/>
+      <c r="C222" s="30"/>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="30"/>
-      <c r="C223" s="31"/>
+      <c r="A223" s="29"/>
+      <c r="C223" s="30"/>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="30"/>
-      <c r="C224" s="31"/>
+      <c r="A224" s="29"/>
+      <c r="C224" s="30"/>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="30"/>
-      <c r="C225" s="31"/>
+      <c r="A225" s="29"/>
+      <c r="C225" s="30"/>
     </row>
     <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="30"/>
-      <c r="C226" s="31"/>
+      <c r="A226" s="29"/>
+      <c r="C226" s="30"/>
     </row>
     <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="30"/>
-      <c r="C227" s="31"/>
+      <c r="A227" s="29"/>
+      <c r="C227" s="30"/>
     </row>
     <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="30"/>
-      <c r="C228" s="31"/>
+      <c r="A228" s="29"/>
+      <c r="C228" s="30"/>
     </row>
     <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="30"/>
-      <c r="C229" s="31"/>
+      <c r="A229" s="29"/>
+      <c r="C229" s="30"/>
     </row>
     <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="30"/>
-      <c r="C230" s="31"/>
+      <c r="A230" s="29"/>
+      <c r="C230" s="30"/>
     </row>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="30"/>
-      <c r="C231" s="31"/>
+      <c r="A231" s="29"/>
+      <c r="C231" s="30"/>
     </row>
     <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="30"/>
-      <c r="C232" s="31"/>
+      <c r="A232" s="29"/>
+      <c r="C232" s="30"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="30"/>
-      <c r="C233" s="31"/>
+      <c r="A233" s="29"/>
+      <c r="C233" s="30"/>
     </row>
     <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="30"/>
-      <c r="C234" s="31"/>
+      <c r="A234" s="29"/>
+      <c r="C234" s="30"/>
     </row>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="30"/>
-      <c r="C235" s="31"/>
+      <c r="A235" s="29"/>
+      <c r="C235" s="30"/>
     </row>
     <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="30"/>
-      <c r="C236" s="31"/>
+      <c r="A236" s="29"/>
+      <c r="C236" s="30"/>
     </row>
     <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="30"/>
-      <c r="C237" s="31"/>
+      <c r="A237" s="29"/>
+      <c r="C237" s="30"/>
     </row>
     <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="30"/>
-      <c r="C238" s="31"/>
+      <c r="A238" s="29"/>
+      <c r="C238" s="30"/>
     </row>
     <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="30"/>
-      <c r="C239" s="31"/>
+      <c r="A239" s="29"/>
+      <c r="C239" s="30"/>
     </row>
     <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="30"/>
-      <c r="C240" s="31"/>
+      <c r="A240" s="29"/>
+      <c r="C240" s="30"/>
     </row>
     <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="30"/>
-      <c r="C241" s="31"/>
+      <c r="A241" s="29"/>
+      <c r="C241" s="30"/>
     </row>
     <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="30"/>
-      <c r="C242" s="31"/>
+      <c r="A242" s="29"/>
+      <c r="C242" s="30"/>
     </row>
     <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="30"/>
-      <c r="C243" s="31"/>
+      <c r="A243" s="29"/>
+      <c r="C243" s="30"/>
     </row>
     <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="30"/>
-      <c r="C244" s="31"/>
+      <c r="A244" s="29"/>
+      <c r="C244" s="30"/>
     </row>
     <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="30"/>
-      <c r="C245" s="31"/>
+      <c r="A245" s="29"/>
+      <c r="C245" s="30"/>
     </row>
     <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="30"/>
-      <c r="C246" s="31"/>
+      <c r="A246" s="29"/>
+      <c r="C246" s="30"/>
     </row>
     <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="30"/>
-      <c r="C247" s="31"/>
+      <c r="A247" s="29"/>
+      <c r="C247" s="30"/>
     </row>
     <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="30"/>
-      <c r="C248" s="31"/>
+      <c r="A248" s="29"/>
+      <c r="C248" s="30"/>
     </row>
     <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="30"/>
-      <c r="C249" s="31"/>
+      <c r="A249" s="29"/>
+      <c r="C249" s="30"/>
     </row>
     <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="30"/>
-      <c r="C250" s="31"/>
+      <c r="A250" s="29"/>
+      <c r="C250" s="30"/>
     </row>
     <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="30"/>
-      <c r="C251" s="31"/>
+      <c r="A251" s="29"/>
+      <c r="C251" s="30"/>
     </row>
     <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="30"/>
-      <c r="C252" s="31"/>
+      <c r="A252" s="29"/>
+      <c r="C252" s="30"/>
     </row>
     <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="30"/>
-      <c r="C253" s="31"/>
+      <c r="A253" s="29"/>
+      <c r="C253" s="30"/>
     </row>
     <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="30"/>
-      <c r="C254" s="31"/>
+      <c r="A254" s="29"/>
+      <c r="C254" s="30"/>
     </row>
     <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="30"/>
-      <c r="C255" s="31"/>
+      <c r="A255" s="29"/>
+      <c r="C255" s="30"/>
     </row>
     <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="30"/>
-      <c r="C256" s="31"/>
+      <c r="A256" s="29"/>
+      <c r="C256" s="30"/>
     </row>
     <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="30"/>
-      <c r="C257" s="31"/>
+      <c r="A257" s="29"/>
+      <c r="C257" s="30"/>
     </row>
     <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="30"/>
-      <c r="C258" s="31"/>
+      <c r="A258" s="29"/>
+      <c r="C258" s="30"/>
     </row>
     <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="30"/>
-      <c r="C259" s="31"/>
+      <c r="A259" s="29"/>
+      <c r="C259" s="30"/>
     </row>
     <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="30"/>
-      <c r="C260" s="31"/>
+      <c r="A260" s="29"/>
+      <c r="C260" s="30"/>
     </row>
     <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="30"/>
-      <c r="C261" s="31"/>
+      <c r="A261" s="29"/>
+      <c r="C261" s="30"/>
     </row>
     <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="30"/>
-      <c r="C262" s="31"/>
+      <c r="A262" s="29"/>
+      <c r="C262" s="30"/>
     </row>
     <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="30"/>
-      <c r="C263" s="31"/>
+      <c r="A263" s="29"/>
+      <c r="C263" s="30"/>
     </row>
     <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="30"/>
-      <c r="C264" s="31"/>
+      <c r="A264" s="29"/>
+      <c r="C264" s="30"/>
     </row>
     <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="30"/>
-      <c r="C265" s="31"/>
+      <c r="A265" s="29"/>
+      <c r="C265" s="30"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="30"/>
-      <c r="C266" s="31"/>
+      <c r="A266" s="29"/>
+      <c r="C266" s="30"/>
     </row>
     <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="30"/>
-      <c r="C267" s="31"/>
+      <c r="A267" s="29"/>
+      <c r="C267" s="30"/>
     </row>
     <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="30"/>
-      <c r="C268" s="31"/>
+      <c r="A268" s="29"/>
+      <c r="C268" s="30"/>
     </row>
     <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="30"/>
-      <c r="C269" s="31"/>
+      <c r="A269" s="29"/>
+      <c r="C269" s="30"/>
     </row>
     <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="30"/>
-      <c r="C270" s="31"/>
+      <c r="A270" s="29"/>
+      <c r="C270" s="30"/>
     </row>
     <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="30"/>
-      <c r="C271" s="31"/>
+      <c r="A271" s="29"/>
+      <c r="C271" s="30"/>
     </row>
     <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="30"/>
-      <c r="C272" s="31"/>
+      <c r="A272" s="29"/>
+      <c r="C272" s="30"/>
     </row>
     <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="30"/>
-      <c r="C273" s="31"/>
+      <c r="A273" s="29"/>
+      <c r="C273" s="30"/>
     </row>
     <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="30"/>
-      <c r="C274" s="31"/>
+      <c r="A274" s="29"/>
+      <c r="C274" s="30"/>
     </row>
     <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="30"/>
-      <c r="C275" s="31"/>
+      <c r="A275" s="29"/>
+      <c r="C275" s="30"/>
     </row>
     <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="30"/>
-      <c r="C276" s="31"/>
+      <c r="A276" s="29"/>
+      <c r="C276" s="30"/>
     </row>
     <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="30"/>
-      <c r="C277" s="31"/>
+      <c r="A277" s="29"/>
+      <c r="C277" s="30"/>
     </row>
     <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="30"/>
-      <c r="C278" s="31"/>
+      <c r="A278" s="29"/>
+      <c r="C278" s="30"/>
     </row>
     <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="30"/>
-      <c r="C279" s="31"/>
+      <c r="A279" s="29"/>
+      <c r="C279" s="30"/>
     </row>
     <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="30"/>
-      <c r="C280" s="31"/>
+      <c r="A280" s="29"/>
+      <c r="C280" s="30"/>
     </row>
     <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="30"/>
-      <c r="C281" s="31"/>
+      <c r="A281" s="29"/>
+      <c r="C281" s="30"/>
     </row>
     <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="30"/>
-      <c r="C282" s="31"/>
+      <c r="A282" s="29"/>
+      <c r="C282" s="30"/>
     </row>
     <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="30"/>
-      <c r="C283" s="31"/>
+      <c r="A283" s="29"/>
+      <c r="C283" s="30"/>
     </row>
     <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="30"/>
-      <c r="C284" s="31"/>
+      <c r="A284" s="29"/>
+      <c r="C284" s="30"/>
     </row>
     <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="30"/>
-      <c r="C285" s="31"/>
+      <c r="A285" s="29"/>
+      <c r="C285" s="30"/>
     </row>
     <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="30"/>
-      <c r="C286" s="31"/>
+      <c r="A286" s="29"/>
+      <c r="C286" s="30"/>
     </row>
     <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="30"/>
-      <c r="C287" s="31"/>
+      <c r="A287" s="29"/>
+      <c r="C287" s="30"/>
     </row>
     <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="30"/>
-      <c r="C288" s="31"/>
+      <c r="A288" s="29"/>
+      <c r="C288" s="30"/>
     </row>
     <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="30"/>
-      <c r="C289" s="31"/>
+      <c r="A289" s="29"/>
+      <c r="C289" s="30"/>
     </row>
     <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="30"/>
-      <c r="C290" s="31"/>
+      <c r="A290" s="29"/>
+      <c r="C290" s="30"/>
     </row>
     <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="30"/>
-      <c r="C291" s="31"/>
+      <c r="A291" s="29"/>
+      <c r="C291" s="30"/>
     </row>
     <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="30"/>
-      <c r="C292" s="31"/>
+      <c r="A292" s="29"/>
+      <c r="C292" s="30"/>
     </row>
     <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="30"/>
-      <c r="C293" s="31"/>
+      <c r="A293" s="29"/>
+      <c r="C293" s="30"/>
     </row>
     <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="30"/>
-      <c r="C294" s="31"/>
+      <c r="A294" s="29"/>
+      <c r="C294" s="30"/>
     </row>
     <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="30"/>
-      <c r="C295" s="31"/>
+      <c r="A295" s="29"/>
+      <c r="C295" s="30"/>
     </row>
     <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="30"/>
-      <c r="C296" s="31"/>
+      <c r="A296" s="29"/>
+      <c r="C296" s="30"/>
     </row>
     <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="30"/>
-      <c r="C297" s="31"/>
+      <c r="A297" s="29"/>
+      <c r="C297" s="30"/>
     </row>
     <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="30"/>
-      <c r="C298" s="31"/>
+      <c r="A298" s="29"/>
+      <c r="C298" s="30"/>
     </row>
     <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="30"/>
-      <c r="C299" s="31"/>
+      <c r="A299" s="29"/>
+      <c r="C299" s="30"/>
     </row>
     <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="30"/>
-      <c r="C300" s="31"/>
+      <c r="A300" s="29"/>
+      <c r="C300" s="30"/>
     </row>
     <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="30"/>
-      <c r="C301" s="31"/>
+      <c r="A301" s="29"/>
+      <c r="C301" s="30"/>
     </row>
     <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="30"/>
-      <c r="C302" s="31"/>
+      <c r="A302" s="29"/>
+      <c r="C302" s="30"/>
     </row>
     <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="30"/>
-      <c r="C303" s="31"/>
+      <c r="A303" s="29"/>
+      <c r="C303" s="30"/>
     </row>
     <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="30"/>
-      <c r="C304" s="31"/>
+      <c r="A304" s="29"/>
+      <c r="C304" s="30"/>
     </row>
     <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="30"/>
-      <c r="C305" s="31"/>
+      <c r="A305" s="29"/>
+      <c r="C305" s="30"/>
     </row>
     <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="30"/>
-      <c r="C306" s="31"/>
+      <c r="A306" s="29"/>
+      <c r="C306" s="30"/>
     </row>
     <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="30"/>
-      <c r="C307" s="31"/>
+      <c r="A307" s="29"/>
+      <c r="C307" s="30"/>
     </row>
     <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="30"/>
-      <c r="C308" s="31"/>
+      <c r="A308" s="29"/>
+      <c r="C308" s="30"/>
     </row>
     <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="30"/>
-      <c r="C309" s="31"/>
+      <c r="A309" s="29"/>
+      <c r="C309" s="30"/>
     </row>
     <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="30"/>
-      <c r="C310" s="31"/>
+      <c r="A310" s="29"/>
+      <c r="C310" s="30"/>
     </row>
     <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="30"/>
-      <c r="C311" s="31"/>
+      <c r="A311" s="29"/>
+      <c r="C311" s="30"/>
     </row>
     <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="30"/>
-      <c r="C312" s="31"/>
+      <c r="A312" s="29"/>
+      <c r="C312" s="30"/>
     </row>
     <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="30"/>
-      <c r="C313" s="31"/>
+      <c r="A313" s="29"/>
+      <c r="C313" s="30"/>
     </row>
     <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="30"/>
-      <c r="C314" s="31"/>
+      <c r="A314" s="29"/>
+      <c r="C314" s="30"/>
     </row>
     <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="30"/>
-      <c r="C315" s="31"/>
+      <c r="A315" s="29"/>
+      <c r="C315" s="30"/>
     </row>
     <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="30"/>
-      <c r="C316" s="31"/>
+      <c r="A316" s="29"/>
+      <c r="C316" s="30"/>
     </row>
     <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="30"/>
-      <c r="C317" s="31"/>
+      <c r="A317" s="29"/>
+      <c r="C317" s="30"/>
     </row>
     <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="30"/>
-      <c r="C318" s="31"/>
+      <c r="A318" s="29"/>
+      <c r="C318" s="30"/>
     </row>
     <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="30"/>
-      <c r="C319" s="31"/>
+      <c r="A319" s="29"/>
+      <c r="C319" s="30"/>
     </row>
     <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="30"/>
-      <c r="C320" s="31"/>
+      <c r="A320" s="29"/>
+      <c r="C320" s="30"/>
     </row>
     <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="30"/>
-      <c r="C321" s="31"/>
+      <c r="A321" s="29"/>
+      <c r="C321" s="30"/>
     </row>
     <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="30"/>
-      <c r="C322" s="31"/>
+      <c r="A322" s="29"/>
+      <c r="C322" s="30"/>
     </row>
     <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="30"/>
-      <c r="C323" s="31"/>
+      <c r="A323" s="29"/>
+      <c r="C323" s="30"/>
     </row>
     <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="30"/>
-      <c r="C324" s="31"/>
+      <c r="A324" s="29"/>
+      <c r="C324" s="30"/>
     </row>
     <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="30"/>
-      <c r="C325" s="31"/>
+      <c r="A325" s="29"/>
+      <c r="C325" s="30"/>
     </row>
     <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="30"/>
-      <c r="C326" s="31"/>
+      <c r="A326" s="29"/>
+      <c r="C326" s="30"/>
     </row>
     <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="30"/>
-      <c r="C327" s="31"/>
+      <c r="A327" s="29"/>
+      <c r="C327" s="30"/>
     </row>
     <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="30"/>
-      <c r="C328" s="31"/>
+      <c r="A328" s="29"/>
+      <c r="C328" s="30"/>
     </row>
     <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="30"/>
-      <c r="C329" s="31"/>
+      <c r="A329" s="29"/>
+      <c r="C329" s="30"/>
     </row>
     <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="30"/>
-      <c r="C330" s="31"/>
+      <c r="A330" s="29"/>
+      <c r="C330" s="30"/>
     </row>
     <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="30"/>
-      <c r="C331" s="31"/>
+      <c r="A331" s="29"/>
+      <c r="C331" s="30"/>
     </row>
     <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="30"/>
-      <c r="C332" s="31"/>
+      <c r="A332" s="29"/>
+      <c r="C332" s="30"/>
     </row>
     <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="30"/>
-      <c r="C333" s="31"/>
+      <c r="A333" s="29"/>
+      <c r="C333" s="30"/>
     </row>
     <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="30"/>
-      <c r="C334" s="31"/>
+      <c r="A334" s="29"/>
+      <c r="C334" s="30"/>
     </row>
     <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="30"/>
-      <c r="C335" s="31"/>
+      <c r="A335" s="29"/>
+      <c r="C335" s="30"/>
     </row>
     <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="30"/>
-      <c r="C336" s="31"/>
+      <c r="A336" s="29"/>
+      <c r="C336" s="30"/>
     </row>
     <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="30"/>
-      <c r="C337" s="31"/>
+      <c r="A337" s="29"/>
+      <c r="C337" s="30"/>
     </row>
     <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="30"/>
-      <c r="C338" s="31"/>
+      <c r="A338" s="29"/>
+      <c r="C338" s="30"/>
     </row>
     <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="30"/>
-      <c r="C339" s="31"/>
+      <c r="A339" s="29"/>
+      <c r="C339" s="30"/>
     </row>
     <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="30"/>
-      <c r="C340" s="31"/>
+      <c r="A340" s="29"/>
+      <c r="C340" s="30"/>
     </row>
     <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="30"/>
-      <c r="C341" s="31"/>
+      <c r="A341" s="29"/>
+      <c r="C341" s="30"/>
     </row>
     <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="30"/>
-      <c r="C342" s="31"/>
+      <c r="A342" s="29"/>
+      <c r="C342" s="30"/>
     </row>
     <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="30"/>
-      <c r="C343" s="31"/>
+      <c r="A343" s="29"/>
+      <c r="C343" s="30"/>
     </row>
     <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="30"/>
-      <c r="C344" s="31"/>
+      <c r="A344" s="29"/>
+      <c r="C344" s="30"/>
     </row>
     <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="30"/>
-      <c r="C345" s="31"/>
+      <c r="A345" s="29"/>
+      <c r="C345" s="30"/>
     </row>
     <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="30"/>
-      <c r="C346" s="31"/>
+      <c r="A346" s="29"/>
+      <c r="C346" s="30"/>
     </row>
     <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="30"/>
-      <c r="C347" s="31"/>
+      <c r="A347" s="29"/>
+      <c r="C347" s="30"/>
     </row>
     <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="30"/>
-      <c r="C348" s="31"/>
+      <c r="A348" s="29"/>
+      <c r="C348" s="30"/>
     </row>
     <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="30"/>
-      <c r="C349" s="31"/>
+      <c r="A349" s="29"/>
+      <c r="C349" s="30"/>
     </row>
     <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="30"/>
-      <c r="C350" s="31"/>
+      <c r="A350" s="29"/>
+      <c r="C350" s="30"/>
     </row>
     <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="30"/>
-      <c r="C351" s="31"/>
+      <c r="A351" s="29"/>
+      <c r="C351" s="30"/>
     </row>
     <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="30"/>
-      <c r="C352" s="31"/>
+      <c r="A352" s="29"/>
+      <c r="C352" s="30"/>
     </row>
     <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="30"/>
-      <c r="C353" s="31"/>
+      <c r="A353" s="29"/>
+      <c r="C353" s="30"/>
     </row>
     <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="30"/>
-      <c r="C354" s="31"/>
+      <c r="A354" s="29"/>
+      <c r="C354" s="30"/>
     </row>
     <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="30"/>
-      <c r="C355" s="31"/>
+      <c r="A355" s="29"/>
+      <c r="C355" s="30"/>
     </row>
     <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="30"/>
-      <c r="C356" s="31"/>
+      <c r="A356" s="29"/>
+      <c r="C356" s="30"/>
     </row>
     <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="30"/>
-      <c r="C357" s="31"/>
+      <c r="A357" s="29"/>
+      <c r="C357" s="30"/>
     </row>
     <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="30"/>
-      <c r="C358" s="31"/>
+      <c r="A358" s="29"/>
+      <c r="C358" s="30"/>
     </row>
     <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="30"/>
-      <c r="C359" s="31"/>
+      <c r="A359" s="29"/>
+      <c r="C359" s="30"/>
     </row>
     <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="30"/>
-      <c r="C360" s="31"/>
+      <c r="A360" s="29"/>
+      <c r="C360" s="30"/>
     </row>
     <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="30"/>
-      <c r="C361" s="31"/>
+      <c r="A361" s="29"/>
+      <c r="C361" s="30"/>
     </row>
     <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="30"/>
-      <c r="C362" s="31"/>
+      <c r="A362" s="29"/>
+      <c r="C362" s="30"/>
     </row>
     <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="30"/>
-      <c r="C363" s="31"/>
+      <c r="A363" s="29"/>
+      <c r="C363" s="30"/>
     </row>
     <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="30"/>
-      <c r="C364" s="31"/>
+      <c r="A364" s="29"/>
+      <c r="C364" s="30"/>
     </row>
     <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="30"/>
-      <c r="C365" s="31"/>
+      <c r="A365" s="29"/>
+      <c r="C365" s="30"/>
     </row>
     <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="30"/>
-      <c r="C366" s="31"/>
+      <c r="A366" s="29"/>
+      <c r="C366" s="30"/>
     </row>
     <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="30"/>
-      <c r="C367" s="31"/>
+      <c r="A367" s="29"/>
+      <c r="C367" s="30"/>
     </row>
     <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="30"/>
-      <c r="C368" s="31"/>
+      <c r="A368" s="29"/>
+      <c r="C368" s="30"/>
     </row>
     <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="30"/>
-      <c r="C369" s="31"/>
+      <c r="A369" s="29"/>
+      <c r="C369" s="30"/>
     </row>
     <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="30"/>
-      <c r="C370" s="31"/>
+      <c r="A370" s="29"/>
+      <c r="C370" s="30"/>
     </row>
     <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="30"/>
-      <c r="C371" s="31"/>
+      <c r="A371" s="29"/>
+      <c r="C371" s="30"/>
     </row>
     <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="30"/>
-      <c r="C372" s="31"/>
+      <c r="A372" s="29"/>
+      <c r="C372" s="30"/>
     </row>
     <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="30"/>
-      <c r="C373" s="31"/>
+      <c r="A373" s="29"/>
+      <c r="C373" s="30"/>
     </row>
     <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="30"/>
-      <c r="C374" s="31"/>
+      <c r="A374" s="29"/>
+      <c r="C374" s="30"/>
     </row>
     <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="30"/>
-      <c r="C375" s="31"/>
+      <c r="A375" s="29"/>
+      <c r="C375" s="30"/>
     </row>
     <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="30"/>
-      <c r="C376" s="31"/>
+      <c r="A376" s="29"/>
+      <c r="C376" s="30"/>
     </row>
     <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="30"/>
-      <c r="C377" s="31"/>
+      <c r="A377" s="29"/>
+      <c r="C377" s="30"/>
     </row>
     <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="30"/>
-      <c r="C378" s="31"/>
+      <c r="A378" s="29"/>
+      <c r="C378" s="30"/>
     </row>
     <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="30"/>
-      <c r="C379" s="31"/>
+      <c r="A379" s="29"/>
+      <c r="C379" s="30"/>
     </row>
     <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="30"/>
-      <c r="C380" s="31"/>
+      <c r="A380" s="29"/>
+      <c r="C380" s="30"/>
     </row>
     <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="30"/>
-      <c r="C381" s="31"/>
+      <c r="A381" s="29"/>
+      <c r="C381" s="30"/>
     </row>
     <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="30"/>
-      <c r="C382" s="31"/>
+      <c r="A382" s="29"/>
+      <c r="C382" s="30"/>
     </row>
     <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="30"/>
-      <c r="C383" s="31"/>
+      <c r="A383" s="29"/>
+      <c r="C383" s="30"/>
     </row>
     <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="30"/>
-      <c r="C384" s="31"/>
+      <c r="A384" s="29"/>
+      <c r="C384" s="30"/>
     </row>
     <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="30"/>
-      <c r="C385" s="31"/>
+      <c r="A385" s="29"/>
+      <c r="C385" s="30"/>
     </row>
     <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="30"/>
-      <c r="C386" s="31"/>
+      <c r="A386" s="29"/>
+      <c r="C386" s="30"/>
     </row>
     <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="30"/>
-      <c r="C387" s="31"/>
+      <c r="A387" s="29"/>
+      <c r="C387" s="30"/>
     </row>
     <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="30"/>
-      <c r="C388" s="31"/>
+      <c r="A388" s="29"/>
+      <c r="C388" s="30"/>
     </row>
     <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="30"/>
-      <c r="C389" s="31"/>
+      <c r="A389" s="29"/>
+      <c r="C389" s="30"/>
     </row>
     <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="30"/>
-      <c r="C390" s="31"/>
+      <c r="A390" s="29"/>
+      <c r="C390" s="30"/>
     </row>
     <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="30"/>
-      <c r="C391" s="31"/>
+      <c r="A391" s="29"/>
+      <c r="C391" s="30"/>
     </row>
     <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="30"/>
-      <c r="C392" s="31"/>
+      <c r="A392" s="29"/>
+      <c r="C392" s="30"/>
     </row>
     <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="30"/>
-      <c r="C393" s="31"/>
+      <c r="A393" s="29"/>
+      <c r="C393" s="30"/>
     </row>
     <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="30"/>
-      <c r="C394" s="31"/>
+      <c r="A394" s="29"/>
+      <c r="C394" s="30"/>
     </row>
     <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="30"/>
-      <c r="C395" s="31"/>
+      <c r="A395" s="29"/>
+      <c r="C395" s="30"/>
     </row>
     <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="30"/>
-      <c r="C396" s="31"/>
+      <c r="A396" s="29"/>
+      <c r="C396" s="30"/>
     </row>
     <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="30"/>
-      <c r="C397" s="31"/>
+      <c r="A397" s="29"/>
+      <c r="C397" s="30"/>
     </row>
     <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="30"/>
-      <c r="C398" s="31"/>
+      <c r="A398" s="29"/>
+      <c r="C398" s="30"/>
     </row>
     <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="30"/>
-      <c r="C399" s="31"/>
+      <c r="A399" s="29"/>
+      <c r="C399" s="30"/>
     </row>
     <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="30"/>
-      <c r="C400" s="31"/>
+      <c r="A400" s="29"/>
+      <c r="C400" s="30"/>
     </row>
     <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="30"/>
-      <c r="C401" s="31"/>
+      <c r="A401" s="29"/>
+      <c r="C401" s="30"/>
     </row>
     <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="30"/>
-      <c r="C402" s="31"/>
+      <c r="A402" s="29"/>
+      <c r="C402" s="30"/>
     </row>
     <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="30"/>
-      <c r="C403" s="31"/>
+      <c r="A403" s="29"/>
+      <c r="C403" s="30"/>
     </row>
     <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="30"/>
-      <c r="C404" s="31"/>
+      <c r="A404" s="29"/>
+      <c r="C404" s="30"/>
     </row>
     <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="30"/>
-      <c r="C405" s="31"/>
+      <c r="A405" s="29"/>
+      <c r="C405" s="30"/>
     </row>
     <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="30"/>
-      <c r="C406" s="31"/>
+      <c r="A406" s="29"/>
+      <c r="C406" s="30"/>
     </row>
     <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="30"/>
-      <c r="C407" s="31"/>
+      <c r="A407" s="29"/>
+      <c r="C407" s="30"/>
     </row>
     <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="30"/>
-      <c r="C408" s="31"/>
+      <c r="A408" s="29"/>
+      <c r="C408" s="30"/>
     </row>
     <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="30"/>
-      <c r="C409" s="31"/>
+      <c r="A409" s="29"/>
+      <c r="C409" s="30"/>
     </row>
     <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="30"/>
-      <c r="C410" s="31"/>
+      <c r="A410" s="29"/>
+      <c r="C410" s="30"/>
     </row>
     <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="30"/>
-      <c r="C411" s="31"/>
+      <c r="A411" s="29"/>
+      <c r="C411" s="30"/>
     </row>
     <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="30"/>
-      <c r="C412" s="31"/>
+      <c r="A412" s="29"/>
+      <c r="C412" s="30"/>
     </row>
     <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="30"/>
-      <c r="C413" s="31"/>
+      <c r="A413" s="29"/>
+      <c r="C413" s="30"/>
     </row>
     <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="30"/>
-      <c r="C414" s="31"/>
+      <c r="A414" s="29"/>
+      <c r="C414" s="30"/>
     </row>
     <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="30"/>
-      <c r="C415" s="31"/>
+      <c r="A415" s="29"/>
+      <c r="C415" s="30"/>
     </row>
     <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="30"/>
-      <c r="C416" s="31"/>
+      <c r="A416" s="29"/>
+      <c r="C416" s="30"/>
     </row>
     <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="30"/>
-      <c r="C417" s="31"/>
+      <c r="A417" s="29"/>
+      <c r="C417" s="30"/>
     </row>
     <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="30"/>
-      <c r="C418" s="31"/>
+      <c r="A418" s="29"/>
+      <c r="C418" s="30"/>
     </row>
     <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="30"/>
-      <c r="C419" s="31"/>
+      <c r="A419" s="29"/>
+      <c r="C419" s="30"/>
     </row>
     <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="30"/>
-      <c r="C420" s="31"/>
+      <c r="A420" s="29"/>
+      <c r="C420" s="30"/>
     </row>
     <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="30"/>
-      <c r="C421" s="31"/>
+      <c r="A421" s="29"/>
+      <c r="C421" s="30"/>
     </row>
     <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="30"/>
-      <c r="C422" s="31"/>
+      <c r="A422" s="29"/>
+      <c r="C422" s="30"/>
     </row>
     <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="30"/>
-      <c r="C423" s="31"/>
+      <c r="A423" s="29"/>
+      <c r="C423" s="30"/>
     </row>
     <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="30"/>
-      <c r="C424" s="31"/>
+      <c r="A424" s="29"/>
+      <c r="C424" s="30"/>
     </row>
     <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="30"/>
-      <c r="C425" s="31"/>
+      <c r="A425" s="29"/>
+      <c r="C425" s="30"/>
     </row>
     <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="30"/>
-      <c r="C426" s="31"/>
+      <c r="A426" s="29"/>
+      <c r="C426" s="30"/>
     </row>
     <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="30"/>
-      <c r="C427" s="31"/>
+      <c r="A427" s="29"/>
+      <c r="C427" s="30"/>
     </row>
     <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="30"/>
-      <c r="C428" s="31"/>
+      <c r="A428" s="29"/>
+      <c r="C428" s="30"/>
     </row>
     <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="30"/>
-      <c r="C429" s="31"/>
+      <c r="A429" s="29"/>
+      <c r="C429" s="30"/>
     </row>
     <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="30"/>
-      <c r="C430" s="31"/>
+      <c r="A430" s="29"/>
+      <c r="C430" s="30"/>
     </row>
     <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="30"/>
-      <c r="C431" s="31"/>
+      <c r="A431" s="29"/>
+      <c r="C431" s="30"/>
     </row>
     <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="30"/>
-      <c r="C432" s="31"/>
+      <c r="A432" s="29"/>
+      <c r="C432" s="30"/>
     </row>
     <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="30"/>
-      <c r="C433" s="31"/>
+      <c r="A433" s="29"/>
+      <c r="C433" s="30"/>
     </row>
     <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="30"/>
-      <c r="C434" s="31"/>
+      <c r="A434" s="29"/>
+      <c r="C434" s="30"/>
     </row>
     <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="30"/>
-      <c r="C435" s="31"/>
+      <c r="A435" s="29"/>
+      <c r="C435" s="30"/>
     </row>
     <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="30"/>
-      <c r="C436" s="31"/>
+      <c r="A436" s="29"/>
+      <c r="C436" s="30"/>
     </row>
     <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="30"/>
-      <c r="C437" s="31"/>
+      <c r="A437" s="29"/>
+      <c r="C437" s="30"/>
     </row>
     <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="30"/>
-      <c r="C438" s="31"/>
+      <c r="A438" s="29"/>
+      <c r="C438" s="30"/>
     </row>
     <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="30"/>
-      <c r="C439" s="31"/>
+      <c r="A439" s="29"/>
+      <c r="C439" s="30"/>
     </row>
     <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="30"/>
-      <c r="C440" s="31"/>
+      <c r="A440" s="29"/>
+      <c r="C440" s="30"/>
     </row>
     <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="30"/>
-      <c r="C441" s="31"/>
+      <c r="A441" s="29"/>
+      <c r="C441" s="30"/>
     </row>
     <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="30"/>
-      <c r="C442" s="31"/>
+      <c r="A442" s="29"/>
+      <c r="C442" s="30"/>
     </row>
     <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="30"/>
-      <c r="C443" s="31"/>
+      <c r="A443" s="29"/>
+      <c r="C443" s="30"/>
     </row>
     <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="30"/>
-      <c r="C444" s="31"/>
+      <c r="A444" s="29"/>
+      <c r="C444" s="30"/>
     </row>
     <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="30"/>
-      <c r="C445" s="31"/>
+      <c r="A445" s="29"/>
+      <c r="C445" s="30"/>
     </row>
     <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="30"/>
-      <c r="C446" s="31"/>
+      <c r="A446" s="29"/>
+      <c r="C446" s="30"/>
     </row>
     <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="30"/>
-      <c r="C447" s="31"/>
+      <c r="A447" s="29"/>
+      <c r="C447" s="30"/>
     </row>
     <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="30"/>
-      <c r="C448" s="31"/>
+      <c r="A448" s="29"/>
+      <c r="C448" s="30"/>
     </row>
     <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="30"/>
-      <c r="C449" s="31"/>
+      <c r="A449" s="29"/>
+      <c r="C449" s="30"/>
     </row>
     <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="30"/>
-      <c r="C450" s="31"/>
+      <c r="A450" s="29"/>
+      <c r="C450" s="30"/>
     </row>
     <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="30"/>
-      <c r="C451" s="31"/>
+      <c r="A451" s="29"/>
+      <c r="C451" s="30"/>
     </row>
     <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="30"/>
-      <c r="C452" s="31"/>
+      <c r="A452" s="29"/>
+      <c r="C452" s="30"/>
     </row>
     <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="30"/>
-      <c r="C453" s="31"/>
+      <c r="A453" s="29"/>
+      <c r="C453" s="30"/>
     </row>
     <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="30"/>
-      <c r="C454" s="31"/>
+      <c r="A454" s="29"/>
+      <c r="C454" s="30"/>
     </row>
     <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="30"/>
-      <c r="C455" s="31"/>
+      <c r="A455" s="29"/>
+      <c r="C455" s="30"/>
     </row>
     <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="30"/>
-      <c r="C456" s="31"/>
+      <c r="A456" s="29"/>
+      <c r="C456" s="30"/>
     </row>
     <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="30"/>
-      <c r="C457" s="31"/>
+      <c r="A457" s="29"/>
+      <c r="C457" s="30"/>
     </row>
     <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="30"/>
-      <c r="C458" s="31"/>
+      <c r="A458" s="29"/>
+      <c r="C458" s="30"/>
     </row>
     <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="30"/>
-      <c r="C459" s="31"/>
+      <c r="A459" s="29"/>
+      <c r="C459" s="30"/>
     </row>
     <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="30"/>
-      <c r="C460" s="31"/>
+      <c r="A460" s="29"/>
+      <c r="C460" s="30"/>
     </row>
     <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="30"/>
-      <c r="C461" s="31"/>
+      <c r="A461" s="29"/>
+      <c r="C461" s="30"/>
     </row>
     <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="30"/>
-      <c r="C462" s="31"/>
+      <c r="A462" s="29"/>
+      <c r="C462" s="30"/>
     </row>
     <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="30"/>
-      <c r="C463" s="31"/>
+      <c r="A463" s="29"/>
+      <c r="C463" s="30"/>
     </row>
     <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="30"/>
-      <c r="C464" s="31"/>
+      <c r="A464" s="29"/>
+      <c r="C464" s="30"/>
     </row>
     <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="30"/>
-      <c r="C465" s="31"/>
+      <c r="A465" s="29"/>
+      <c r="C465" s="30"/>
     </row>
     <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="30"/>
-      <c r="C466" s="31"/>
+      <c r="A466" s="29"/>
+      <c r="C466" s="30"/>
     </row>
     <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="30"/>
-      <c r="C467" s="31"/>
+      <c r="A467" s="29"/>
+      <c r="C467" s="30"/>
     </row>
     <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="30"/>
-      <c r="C468" s="31"/>
+      <c r="A468" s="29"/>
+      <c r="C468" s="30"/>
     </row>
     <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="30"/>
-      <c r="C469" s="31"/>
+      <c r="A469" s="29"/>
+      <c r="C469" s="30"/>
     </row>
     <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="30"/>
-      <c r="C470" s="31"/>
+      <c r="A470" s="29"/>
+      <c r="C470" s="30"/>
     </row>
     <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="30"/>
-      <c r="C471" s="31"/>
+      <c r="A471" s="29"/>
+      <c r="C471" s="30"/>
     </row>
     <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="30"/>
-      <c r="C472" s="31"/>
+      <c r="A472" s="29"/>
+      <c r="C472" s="30"/>
     </row>
     <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="30"/>
-      <c r="C473" s="31"/>
+      <c r="A473" s="29"/>
+      <c r="C473" s="30"/>
     </row>
     <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="30"/>
-      <c r="C474" s="31"/>
+      <c r="A474" s="29"/>
+      <c r="C474" s="30"/>
     </row>
     <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="30"/>
-      <c r="C475" s="31"/>
+      <c r="A475" s="29"/>
+      <c r="C475" s="30"/>
     </row>
     <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="30"/>
-      <c r="C476" s="31"/>
+      <c r="A476" s="29"/>
+      <c r="C476" s="30"/>
     </row>
     <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="30"/>
-      <c r="C477" s="31"/>
+      <c r="A477" s="29"/>
+      <c r="C477" s="30"/>
     </row>
     <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="30"/>
-      <c r="C478" s="31"/>
+      <c r="A478" s="29"/>
+      <c r="C478" s="30"/>
     </row>
     <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="30"/>
-      <c r="C479" s="31"/>
+      <c r="A479" s="29"/>
+      <c r="C479" s="30"/>
     </row>
     <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="30"/>
-      <c r="C480" s="31"/>
+      <c r="A480" s="29"/>
+      <c r="C480" s="30"/>
     </row>
     <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="30"/>
-      <c r="C481" s="31"/>
+      <c r="A481" s="29"/>
+      <c r="C481" s="30"/>
     </row>
     <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="30"/>
-      <c r="C482" s="31"/>
+      <c r="A482" s="29"/>
+      <c r="C482" s="30"/>
     </row>
     <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="30"/>
-      <c r="C483" s="31"/>
+      <c r="A483" s="29"/>
+      <c r="C483" s="30"/>
     </row>
     <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="30"/>
-      <c r="C484" s="31"/>
+      <c r="A484" s="29"/>
+      <c r="C484" s="30"/>
     </row>
     <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="30"/>
-      <c r="C485" s="31"/>
+      <c r="A485" s="29"/>
+      <c r="C485" s="30"/>
     </row>
     <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="30"/>
-      <c r="C486" s="31"/>
+      <c r="A486" s="29"/>
+      <c r="C486" s="30"/>
     </row>
     <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="30"/>
-      <c r="C487" s="31"/>
+      <c r="A487" s="29"/>
+      <c r="C487" s="30"/>
     </row>
     <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="30"/>
-      <c r="C488" s="31"/>
+      <c r="A488" s="29"/>
+      <c r="C488" s="30"/>
     </row>
     <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="30"/>
-      <c r="C489" s="31"/>
+      <c r="A489" s="29"/>
+      <c r="C489" s="30"/>
     </row>
     <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="30"/>
-      <c r="C490" s="31"/>
+      <c r="A490" s="29"/>
+      <c r="C490" s="30"/>
     </row>
     <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="30"/>
-      <c r="C491" s="31"/>
+      <c r="A491" s="29"/>
+      <c r="C491" s="30"/>
     </row>
     <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="30"/>
-      <c r="C492" s="31"/>
+      <c r="A492" s="29"/>
+      <c r="C492" s="30"/>
     </row>
     <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="30"/>
-      <c r="C493" s="31"/>
+      <c r="A493" s="29"/>
+      <c r="C493" s="30"/>
     </row>
     <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="30"/>
-      <c r="C494" s="31"/>
+      <c r="A494" s="29"/>
+      <c r="C494" s="30"/>
     </row>
     <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="30"/>
-      <c r="C495" s="31"/>
+      <c r="A495" s="29"/>
+      <c r="C495" s="30"/>
     </row>
     <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="30"/>
-      <c r="C496" s="31"/>
+      <c r="A496" s="29"/>
+      <c r="C496" s="30"/>
     </row>
     <row r="497" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="30"/>
-      <c r="C497" s="31"/>
+      <c r="A497" s="29"/>
+      <c r="C497" s="30"/>
     </row>
     <row r="498" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="30"/>
-      <c r="C498" s="31"/>
+      <c r="A498" s="29"/>
+      <c r="C498" s="30"/>
     </row>
     <row r="499" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="30"/>
-      <c r="C499" s="31"/>
+      <c r="A499" s="29"/>
+      <c r="C499" s="30"/>
     </row>
     <row r="500" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="30"/>
-      <c r="C500" s="31"/>
+      <c r="A500" s="29"/>
+      <c r="C500" s="30"/>
     </row>
     <row r="501" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="30"/>
-      <c r="C501" s="31"/>
+      <c r="A501" s="29"/>
+      <c r="C501" s="30"/>
     </row>
     <row r="502" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="30"/>
-      <c r="C502" s="31"/>
+      <c r="A502" s="29"/>
+      <c r="C502" s="30"/>
     </row>
     <row r="503" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="30"/>
-      <c r="C503" s="31"/>
+      <c r="A503" s="29"/>
+      <c r="C503" s="30"/>
     </row>
     <row r="504" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="30"/>
-      <c r="C504" s="31"/>
+      <c r="A504" s="29"/>
+      <c r="C504" s="30"/>
     </row>
     <row r="505" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A505" s="30"/>
-      <c r="C505" s="31"/>
+      <c r="A505" s="29"/>
+      <c r="C505" s="30"/>
     </row>
     <row r="506" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A506" s="30"/>
-      <c r="C506" s="31"/>
+      <c r="A506" s="29"/>
+      <c r="C506" s="30"/>
     </row>
     <row r="507" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="30"/>
-      <c r="C507" s="31"/>
+      <c r="A507" s="29"/>
+      <c r="C507" s="30"/>
     </row>
     <row r="508" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="30"/>
-      <c r="C508" s="31"/>
+      <c r="A508" s="29"/>
+      <c r="C508" s="30"/>
     </row>
     <row r="509" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="30"/>
-      <c r="C509" s="31"/>
+      <c r="A509" s="29"/>
+      <c r="C509" s="30"/>
     </row>
     <row r="510" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="30"/>
-      <c r="C510" s="31"/>
+      <c r="A510" s="29"/>
+      <c r="C510" s="30"/>
     </row>
     <row r="511" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="30"/>
-      <c r="C511" s="31"/>
+      <c r="A511" s="29"/>
+      <c r="C511" s="30"/>
     </row>
     <row r="512" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="30"/>
-      <c r="C512" s="31"/>
+      <c r="A512" s="29"/>
+      <c r="C512" s="30"/>
     </row>
     <row r="513" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="30"/>
-      <c r="C513" s="31"/>
+      <c r="A513" s="29"/>
+      <c r="C513" s="30"/>
     </row>
     <row r="514" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="30"/>
-      <c r="C514" s="31"/>
+      <c r="A514" s="29"/>
+      <c r="C514" s="30"/>
     </row>
     <row r="515" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="30"/>
-      <c r="C515" s="31"/>
+      <c r="A515" s="29"/>
+      <c r="C515" s="30"/>
     </row>
     <row r="516" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="30"/>
-      <c r="C516" s="31"/>
+      <c r="A516" s="29"/>
+      <c r="C516" s="30"/>
     </row>
     <row r="517" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="30"/>
-      <c r="C517" s="31"/>
+      <c r="A517" s="29"/>
+      <c r="C517" s="30"/>
     </row>
     <row r="518" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="30"/>
-      <c r="C518" s="31"/>
+      <c r="A518" s="29"/>
+      <c r="C518" s="30"/>
     </row>
     <row r="519" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="30"/>
-      <c r="C519" s="31"/>
+      <c r="A519" s="29"/>
+      <c r="C519" s="30"/>
     </row>
     <row r="520" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="30"/>
-      <c r="C520" s="31"/>
+      <c r="A520" s="29"/>
+      <c r="C520" s="30"/>
     </row>
     <row r="521" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="30"/>
-      <c r="C521" s="31"/>
+      <c r="A521" s="29"/>
+      <c r="C521" s="30"/>
     </row>
     <row r="522" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="30"/>
-      <c r="C522" s="31"/>
+      <c r="A522" s="29"/>
+      <c r="C522" s="30"/>
     </row>
     <row r="523" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="30"/>
-      <c r="C523" s="31"/>
+      <c r="A523" s="29"/>
+      <c r="C523" s="30"/>
     </row>
     <row r="524" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="30"/>
-      <c r="C524" s="31"/>
+      <c r="A524" s="29"/>
+      <c r="C524" s="30"/>
     </row>
     <row r="525" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="30"/>
-      <c r="C525" s="31"/>
+      <c r="A525" s="29"/>
+      <c r="C525" s="30"/>
     </row>
     <row r="526" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="30"/>
-      <c r="C526" s="31"/>
+      <c r="A526" s="29"/>
+      <c r="C526" s="30"/>
     </row>
     <row r="527" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="30"/>
-      <c r="C527" s="31"/>
+      <c r="A527" s="29"/>
+      <c r="C527" s="30"/>
     </row>
     <row r="528" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="30"/>
-      <c r="C528" s="31"/>
+      <c r="A528" s="29"/>
+      <c r="C528" s="30"/>
     </row>
     <row r="529" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="30"/>
-      <c r="C529" s="31"/>
+      <c r="A529" s="29"/>
+      <c r="C529" s="30"/>
     </row>
     <row r="530" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="30"/>
-      <c r="C530" s="31"/>
+      <c r="A530" s="29"/>
+      <c r="C530" s="30"/>
     </row>
     <row r="531" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="30"/>
-      <c r="C531" s="31"/>
+      <c r="A531" s="29"/>
+      <c r="C531" s="30"/>
     </row>
     <row r="532" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="30"/>
-      <c r="C532" s="31"/>
+      <c r="A532" s="29"/>
+      <c r="C532" s="30"/>
     </row>
     <row r="533" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="30"/>
-      <c r="C533" s="31"/>
+      <c r="A533" s="29"/>
+      <c r="C533" s="30"/>
     </row>
     <row r="534" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="30"/>
-      <c r="C534" s="31"/>
+      <c r="A534" s="29"/>
+      <c r="C534" s="30"/>
     </row>
     <row r="535" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="30"/>
-      <c r="C535" s="31"/>
+      <c r="A535" s="29"/>
+      <c r="C535" s="30"/>
     </row>
     <row r="536" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="30"/>
-      <c r="C536" s="31"/>
+      <c r="A536" s="29"/>
+      <c r="C536" s="30"/>
     </row>
     <row r="537" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="30"/>
-      <c r="C537" s="31"/>
+      <c r="A537" s="29"/>
+      <c r="C537" s="30"/>
     </row>
     <row r="538" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="30"/>
-      <c r="C538" s="31"/>
+      <c r="A538" s="29"/>
+      <c r="C538" s="30"/>
     </row>
     <row r="539" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="30"/>
-      <c r="C539" s="31"/>
+      <c r="A539" s="29"/>
+      <c r="C539" s="30"/>
     </row>
     <row r="540" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="30"/>
-      <c r="C540" s="31"/>
+      <c r="A540" s="29"/>
+      <c r="C540" s="30"/>
     </row>
     <row r="541" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="30"/>
-      <c r="C541" s="31"/>
+      <c r="A541" s="29"/>
+      <c r="C541" s="30"/>
     </row>
     <row r="542" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="30"/>
-      <c r="C542" s="31"/>
+      <c r="A542" s="29"/>
+      <c r="C542" s="30"/>
     </row>
     <row r="543" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="30"/>
-      <c r="C543" s="31"/>
+      <c r="A543" s="29"/>
+      <c r="C543" s="30"/>
     </row>
     <row r="544" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="30"/>
-      <c r="C544" s="31"/>
+      <c r="A544" s="29"/>
+      <c r="C544" s="30"/>
     </row>
     <row r="545" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="30"/>
-      <c r="C545" s="31"/>
+      <c r="A545" s="29"/>
+      <c r="C545" s="30"/>
     </row>
     <row r="546" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="30"/>
-      <c r="C546" s="31"/>
+      <c r="A546" s="29"/>
+      <c r="C546" s="30"/>
     </row>
     <row r="547" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="30"/>
-      <c r="C547" s="31"/>
+      <c r="A547" s="29"/>
+      <c r="C547" s="30"/>
     </row>
     <row r="548" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="30"/>
-      <c r="C548" s="31"/>
+      <c r="A548" s="29"/>
+      <c r="C548" s="30"/>
     </row>
     <row r="549" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="30"/>
-      <c r="C549" s="31"/>
+      <c r="A549" s="29"/>
+      <c r="C549" s="30"/>
     </row>
     <row r="550" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="30"/>
-      <c r="C550" s="31"/>
+      <c r="A550" s="29"/>
+      <c r="C550" s="30"/>
     </row>
     <row r="551" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="30"/>
-      <c r="C551" s="31"/>
+      <c r="A551" s="29"/>
+      <c r="C551" s="30"/>
     </row>
     <row r="552" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="30"/>
-      <c r="C552" s="31"/>
+      <c r="A552" s="29"/>
+      <c r="C552" s="30"/>
     </row>
     <row r="553" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="30"/>
-      <c r="C553" s="31"/>
+      <c r="A553" s="29"/>
+      <c r="C553" s="30"/>
     </row>
     <row r="554" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="30"/>
-      <c r="C554" s="31"/>
+      <c r="A554" s="29"/>
+      <c r="C554" s="30"/>
     </row>
     <row r="555" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="30"/>
-      <c r="C555" s="31"/>
+      <c r="A555" s="29"/>
+      <c r="C555" s="30"/>
     </row>
     <row r="556" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="30"/>
-      <c r="C556" s="31"/>
+      <c r="A556" s="29"/>
+      <c r="C556" s="30"/>
     </row>
     <row r="557" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="30"/>
-      <c r="C557" s="31"/>
+      <c r="A557" s="29"/>
+      <c r="C557" s="30"/>
     </row>
     <row r="558" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="30"/>
-      <c r="C558" s="31"/>
+      <c r="A558" s="29"/>
+      <c r="C558" s="30"/>
     </row>
     <row r="559" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="30"/>
-      <c r="C559" s="31"/>
+      <c r="A559" s="29"/>
+      <c r="C559" s="30"/>
     </row>
     <row r="560" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="30"/>
-      <c r="C560" s="31"/>
+      <c r="A560" s="29"/>
+      <c r="C560" s="30"/>
     </row>
     <row r="561" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="30"/>
-      <c r="C561" s="31"/>
+      <c r="A561" s="29"/>
+      <c r="C561" s="30"/>
     </row>
     <row r="562" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="30"/>
-      <c r="C562" s="31"/>
+      <c r="A562" s="29"/>
+      <c r="C562" s="30"/>
     </row>
     <row r="563" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="30"/>
-      <c r="C563" s="31"/>
+      <c r="A563" s="29"/>
+      <c r="C563" s="30"/>
     </row>
     <row r="564" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="30"/>
-      <c r="C564" s="31"/>
+      <c r="A564" s="29"/>
+      <c r="C564" s="30"/>
     </row>
     <row r="565" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="30"/>
-      <c r="C565" s="31"/>
+      <c r="A565" s="29"/>
+      <c r="C565" s="30"/>
     </row>
     <row r="566" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="30"/>
-      <c r="C566" s="31"/>
+      <c r="A566" s="29"/>
+      <c r="C566" s="30"/>
     </row>
     <row r="567" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="30"/>
-      <c r="C567" s="31"/>
+      <c r="A567" s="29"/>
+      <c r="C567" s="30"/>
     </row>
     <row r="568" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="30"/>
-      <c r="C568" s="31"/>
+      <c r="A568" s="29"/>
+      <c r="C568" s="30"/>
     </row>
     <row r="569" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="30"/>
-      <c r="C569" s="31"/>
+      <c r="A569" s="29"/>
+      <c r="C569" s="30"/>
     </row>
     <row r="570" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="30"/>
-      <c r="C570" s="31"/>
+      <c r="A570" s="29"/>
+      <c r="C570" s="30"/>
     </row>
     <row r="571" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="30"/>
-      <c r="C571" s="31"/>
+      <c r="A571" s="29"/>
+      <c r="C571" s="30"/>
     </row>
     <row r="572" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="30"/>
-      <c r="C572" s="31"/>
+      <c r="A572" s="29"/>
+      <c r="C572" s="30"/>
     </row>
     <row r="573" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="30"/>
-      <c r="C573" s="31"/>
+      <c r="A573" s="29"/>
+      <c r="C573" s="30"/>
     </row>
     <row r="574" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="30"/>
-      <c r="C574" s="31"/>
+      <c r="A574" s="29"/>
+      <c r="C574" s="30"/>
     </row>
     <row r="575" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="30"/>
-      <c r="C575" s="31"/>
+      <c r="A575" s="29"/>
+      <c r="C575" s="30"/>
     </row>
     <row r="576" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="30"/>
-      <c r="C576" s="31"/>
+      <c r="A576" s="29"/>
+      <c r="C576" s="30"/>
     </row>
     <row r="577" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="30"/>
-      <c r="C577" s="31"/>
+      <c r="A577" s="29"/>
+      <c r="C577" s="30"/>
     </row>
     <row r="578" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="30"/>
-      <c r="C578" s="31"/>
+      <c r="A578" s="29"/>
+      <c r="C578" s="30"/>
     </row>
     <row r="579" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="30"/>
-      <c r="C579" s="31"/>
+      <c r="A579" s="29"/>
+      <c r="C579" s="30"/>
     </row>
     <row r="580" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="30"/>
-      <c r="C580" s="31"/>
+      <c r="A580" s="29"/>
+      <c r="C580" s="30"/>
     </row>
     <row r="581" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="30"/>
-      <c r="C581" s="31"/>
+      <c r="A581" s="29"/>
+      <c r="C581" s="30"/>
     </row>
     <row r="582" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="30"/>
-      <c r="C582" s="31"/>
+      <c r="A582" s="29"/>
+      <c r="C582" s="30"/>
     </row>
     <row r="583" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="30"/>
-      <c r="C583" s="31"/>
+      <c r="A583" s="29"/>
+      <c r="C583" s="30"/>
     </row>
     <row r="584" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="30"/>
-      <c r="C584" s="31"/>
+      <c r="A584" s="29"/>
+      <c r="C584" s="30"/>
     </row>
     <row r="585" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="30"/>
-      <c r="C585" s="31"/>
+      <c r="A585" s="29"/>
+      <c r="C585" s="30"/>
     </row>
     <row r="586" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="30"/>
-      <c r="C586" s="31"/>
+      <c r="A586" s="29"/>
+      <c r="C586" s="30"/>
     </row>
     <row r="587" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="30"/>
-      <c r="C587" s="31"/>
+      <c r="A587" s="29"/>
+      <c r="C587" s="30"/>
     </row>
     <row r="588" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="30"/>
-      <c r="C588" s="31"/>
+      <c r="A588" s="29"/>
+      <c r="C588" s="30"/>
     </row>
     <row r="589" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="30"/>
-      <c r="C589" s="31"/>
+      <c r="A589" s="29"/>
+      <c r="C589" s="30"/>
     </row>
     <row r="590" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="30"/>
-      <c r="C590" s="31"/>
+      <c r="A590" s="29"/>
+      <c r="C590" s="30"/>
     </row>
     <row r="591" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="30"/>
-      <c r="C591" s="31"/>
+      <c r="A591" s="29"/>
+      <c r="C591" s="30"/>
     </row>
     <row r="592" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="30"/>
-      <c r="C592" s="31"/>
+      <c r="A592" s="29"/>
+      <c r="C592" s="30"/>
     </row>
     <row r="593" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="30"/>
-      <c r="C593" s="31"/>
+      <c r="A593" s="29"/>
+      <c r="C593" s="30"/>
     </row>
     <row r="594" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="30"/>
-      <c r="C594" s="31"/>
+      <c r="A594" s="29"/>
+      <c r="C594" s="30"/>
     </row>
     <row r="595" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="30"/>
-      <c r="C595" s="31"/>
+      <c r="A595" s="29"/>
+      <c r="C595" s="30"/>
     </row>
     <row r="596" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="30"/>
-      <c r="C596" s="31"/>
+      <c r="A596" s="29"/>
+      <c r="C596" s="30"/>
     </row>
     <row r="597" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="30"/>
-      <c r="C597" s="31"/>
+      <c r="A597" s="29"/>
+      <c r="C597" s="30"/>
     </row>
     <row r="598" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="30"/>
-      <c r="C598" s="31"/>
+      <c r="A598" s="29"/>
+      <c r="C598" s="30"/>
     </row>
     <row r="599" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="30"/>
-      <c r="C599" s="31"/>
+      <c r="A599" s="29"/>
+      <c r="C599" s="30"/>
     </row>
     <row r="600" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="30"/>
-      <c r="C600" s="31"/>
+      <c r="A600" s="29"/>
+      <c r="C600" s="30"/>
     </row>
     <row r="601" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="30"/>
-      <c r="C601" s="31"/>
+      <c r="A601" s="29"/>
+      <c r="C601" s="30"/>
     </row>
     <row r="602" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="30"/>
-      <c r="C602" s="31"/>
+      <c r="A602" s="29"/>
+      <c r="C602" s="30"/>
     </row>
     <row r="603" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="30"/>
-      <c r="C603" s="31"/>
+      <c r="A603" s="29"/>
+      <c r="C603" s="30"/>
     </row>
     <row r="604" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="30"/>
-      <c r="C604" s="31"/>
+      <c r="A604" s="29"/>
+      <c r="C604" s="30"/>
     </row>
     <row r="605" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="30"/>
-      <c r="C605" s="31"/>
+      <c r="A605" s="29"/>
+      <c r="C605" s="30"/>
     </row>
     <row r="606" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="30"/>
-      <c r="C606" s="31"/>
+      <c r="A606" s="29"/>
+      <c r="C606" s="30"/>
     </row>
     <row r="607" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="30"/>
-      <c r="C607" s="31"/>
+      <c r="A607" s="29"/>
+      <c r="C607" s="30"/>
     </row>
     <row r="608" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="30"/>
-      <c r="C608" s="31"/>
+      <c r="A608" s="29"/>
+      <c r="C608" s="30"/>
     </row>
     <row r="609" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A609" s="30"/>
-      <c r="C609" s="31"/>
+      <c r="A609" s="29"/>
+      <c r="C609" s="30"/>
     </row>
     <row r="610" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A610" s="30"/>
-      <c r="C610" s="31"/>
+      <c r="A610" s="29"/>
+      <c r="C610" s="30"/>
     </row>
     <row r="611" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="30"/>
-      <c r="C611" s="31"/>
+      <c r="A611" s="29"/>
+      <c r="C611" s="30"/>
     </row>
     <row r="612" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="30"/>
-      <c r="C612" s="31"/>
+      <c r="A612" s="29"/>
+      <c r="C612" s="30"/>
     </row>
     <row r="613" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="30"/>
-      <c r="C613" s="31"/>
+      <c r="A613" s="29"/>
+      <c r="C613" s="30"/>
     </row>
     <row r="614" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="30"/>
-      <c r="C614" s="31"/>
+      <c r="A614" s="29"/>
+      <c r="C614" s="30"/>
     </row>
     <row r="615" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="30"/>
-      <c r="C615" s="31"/>
+      <c r="A615" s="29"/>
+      <c r="C615" s="30"/>
     </row>
     <row r="616" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="30"/>
-      <c r="C616" s="31"/>
+      <c r="A616" s="29"/>
+      <c r="C616" s="30"/>
     </row>
     <row r="617" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A617" s="30"/>
-      <c r="C617" s="31"/>
+      <c r="A617" s="29"/>
+      <c r="C617" s="30"/>
     </row>
     <row r="618" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="30"/>
-      <c r="C618" s="31"/>
+      <c r="A618" s="29"/>
+      <c r="C618" s="30"/>
     </row>
     <row r="619" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="30"/>
-      <c r="C619" s="31"/>
+      <c r="A619" s="29"/>
+      <c r="C619" s="30"/>
     </row>
     <row r="620" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A620" s="30"/>
-      <c r="C620" s="31"/>
+      <c r="A620" s="29"/>
+      <c r="C620" s="30"/>
     </row>
     <row r="621" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="30"/>
-      <c r="C621" s="31"/>
+      <c r="A621" s="29"/>
+      <c r="C621" s="30"/>
     </row>
     <row r="622" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A622" s="30"/>
-      <c r="C622" s="31"/>
+      <c r="A622" s="29"/>
+      <c r="C622" s="30"/>
     </row>
     <row r="623" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="30"/>
-      <c r="C623" s="31"/>
+      <c r="A623" s="29"/>
+      <c r="C623" s="30"/>
     </row>
     <row r="624" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="30"/>
-      <c r="C624" s="31"/>
+      <c r="A624" s="29"/>
+      <c r="C624" s="30"/>
     </row>
     <row r="625" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A625" s="30"/>
-      <c r="C625" s="31"/>
+      <c r="A625" s="29"/>
+      <c r="C625" s="30"/>
     </row>
     <row r="626" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A626" s="30"/>
-      <c r="C626" s="31"/>
+      <c r="A626" s="29"/>
+      <c r="C626" s="30"/>
     </row>
     <row r="627" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="30"/>
-      <c r="C627" s="31"/>
+      <c r="A627" s="29"/>
+      <c r="C627" s="30"/>
     </row>
     <row r="628" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="30"/>
-      <c r="C628" s="31"/>
+      <c r="A628" s="29"/>
+      <c r="C628" s="30"/>
     </row>
     <row r="629" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A629" s="30"/>
-      <c r="C629" s="31"/>
+      <c r="A629" s="29"/>
+      <c r="C629" s="30"/>
     </row>
     <row r="630" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="30"/>
-      <c r="C630" s="31"/>
+      <c r="A630" s="29"/>
+      <c r="C630" s="30"/>
     </row>
     <row r="631" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="30"/>
-      <c r="C631" s="31"/>
+      <c r="A631" s="29"/>
+      <c r="C631" s="30"/>
     </row>
     <row r="632" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="30"/>
-      <c r="C632" s="31"/>
+      <c r="A632" s="29"/>
+      <c r="C632" s="30"/>
     </row>
     <row r="633" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="30"/>
-      <c r="C633" s="31"/>
+      <c r="A633" s="29"/>
+      <c r="C633" s="30"/>
     </row>
     <row r="634" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="30"/>
-      <c r="C634" s="31"/>
+      <c r="A634" s="29"/>
+      <c r="C634" s="30"/>
     </row>
     <row r="635" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A635" s="30"/>
-      <c r="C635" s="31"/>
+      <c r="A635" s="29"/>
+      <c r="C635" s="30"/>
     </row>
     <row r="636" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A636" s="30"/>
-      <c r="C636" s="31"/>
+      <c r="A636" s="29"/>
+      <c r="C636" s="30"/>
     </row>
     <row r="637" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A637" s="30"/>
-      <c r="C637" s="31"/>
+      <c r="A637" s="29"/>
+      <c r="C637" s="30"/>
     </row>
     <row r="638" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="30"/>
-      <c r="C638" s="31"/>
+      <c r="A638" s="29"/>
+      <c r="C638" s="30"/>
     </row>
     <row r="639" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="30"/>
-      <c r="C639" s="31"/>
+      <c r="A639" s="29"/>
+      <c r="C639" s="30"/>
     </row>
     <row r="640" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="30"/>
-      <c r="C640" s="31"/>
+      <c r="A640" s="29"/>
+      <c r="C640" s="30"/>
     </row>
     <row r="641" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A641" s="30"/>
-      <c r="C641" s="31"/>
+      <c r="A641" s="29"/>
+      <c r="C641" s="30"/>
     </row>
     <row r="642" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A642" s="30"/>
-      <c r="C642" s="31"/>
+      <c r="A642" s="29"/>
+      <c r="C642" s="30"/>
     </row>
     <row r="643" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A643" s="30"/>
-      <c r="C643" s="31"/>
+      <c r="A643" s="29"/>
+      <c r="C643" s="30"/>
     </row>
     <row r="644" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="30"/>
-      <c r="C644" s="31"/>
+      <c r="A644" s="29"/>
+      <c r="C644" s="30"/>
     </row>
     <row r="645" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A645" s="30"/>
-      <c r="C645" s="31"/>
+      <c r="A645" s="29"/>
+      <c r="C645" s="30"/>
     </row>
     <row r="646" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="30"/>
-      <c r="C646" s="31"/>
+      <c r="A646" s="29"/>
+      <c r="C646" s="30"/>
     </row>
     <row r="647" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A647" s="30"/>
-      <c r="C647" s="31"/>
+      <c r="A647" s="29"/>
+      <c r="C647" s="30"/>
     </row>
     <row r="648" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A648" s="30"/>
-      <c r="C648" s="31"/>
+      <c r="A648" s="29"/>
+      <c r="C648" s="30"/>
     </row>
     <row r="649" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A649" s="30"/>
-      <c r="C649" s="31"/>
+      <c r="A649" s="29"/>
+      <c r="C649" s="30"/>
     </row>
     <row r="650" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A650" s="30"/>
-      <c r="C650" s="31"/>
+      <c r="A650" s="29"/>
+      <c r="C650" s="30"/>
     </row>
     <row r="651" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A651" s="30"/>
-      <c r="C651" s="31"/>
+      <c r="A651" s="29"/>
+      <c r="C651" s="30"/>
     </row>
     <row r="652" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A652" s="30"/>
-      <c r="C652" s="31"/>
+      <c r="A652" s="29"/>
+      <c r="C652" s="30"/>
     </row>
     <row r="653" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A653" s="30"/>
-      <c r="C653" s="31"/>
+      <c r="A653" s="29"/>
+      <c r="C653" s="30"/>
     </row>
     <row r="654" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A654" s="30"/>
-      <c r="C654" s="31"/>
+      <c r="A654" s="29"/>
+      <c r="C654" s="30"/>
     </row>
     <row r="655" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="30"/>
-      <c r="C655" s="31"/>
+      <c r="A655" s="29"/>
+      <c r="C655" s="30"/>
     </row>
     <row r="656" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A656" s="30"/>
-      <c r="C656" s="31"/>
+      <c r="A656" s="29"/>
+      <c r="C656" s="30"/>
     </row>
     <row r="657" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A657" s="30"/>
-      <c r="C657" s="31"/>
+      <c r="A657" s="29"/>
+      <c r="C657" s="30"/>
     </row>
     <row r="658" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A658" s="30"/>
-      <c r="C658" s="31"/>
+      <c r="A658" s="29"/>
+      <c r="C658" s="30"/>
     </row>
     <row r="659" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A659" s="30"/>
-      <c r="C659" s="31"/>
+      <c r="A659" s="29"/>
+      <c r="C659" s="30"/>
     </row>
     <row r="660" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A660" s="30"/>
-      <c r="C660" s="31"/>
+      <c r="A660" s="29"/>
+      <c r="C660" s="30"/>
     </row>
     <row r="661" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A661" s="30"/>
-      <c r="C661" s="31"/>
+      <c r="A661" s="29"/>
+      <c r="C661" s="30"/>
     </row>
     <row r="662" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A662" s="30"/>
-      <c r="C662" s="31"/>
+      <c r="A662" s="29"/>
+      <c r="C662" s="30"/>
     </row>
     <row r="663" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A663" s="30"/>
-      <c r="C663" s="31"/>
+      <c r="A663" s="29"/>
+      <c r="C663" s="30"/>
     </row>
     <row r="664" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A664" s="30"/>
-      <c r="C664" s="31"/>
+      <c r="A664" s="29"/>
+      <c r="C664" s="30"/>
     </row>
     <row r="665" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A665" s="30"/>
-      <c r="C665" s="31"/>
+      <c r="A665" s="29"/>
+      <c r="C665" s="30"/>
     </row>
     <row r="666" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A666" s="30"/>
-      <c r="C666" s="31"/>
+      <c r="A666" s="29"/>
+      <c r="C666" s="30"/>
     </row>
     <row r="667" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A667" s="30"/>
-      <c r="C667" s="31"/>
+      <c r="A667" s="29"/>
+      <c r="C667" s="30"/>
     </row>
     <row r="668" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A668" s="30"/>
-      <c r="C668" s="31"/>
+      <c r="A668" s="29"/>
+      <c r="C668" s="30"/>
     </row>
     <row r="669" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A669" s="30"/>
-      <c r="C669" s="31"/>
+      <c r="A669" s="29"/>
+      <c r="C669" s="30"/>
     </row>
     <row r="670" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A670" s="30"/>
-      <c r="C670" s="31"/>
+      <c r="A670" s="29"/>
+      <c r="C670" s="30"/>
     </row>
     <row r="671" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="30"/>
-      <c r="C671" s="31"/>
+      <c r="A671" s="29"/>
+      <c r="C671" s="30"/>
     </row>
     <row r="672" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A672" s="30"/>
-      <c r="C672" s="31"/>
+      <c r="A672" s="29"/>
+      <c r="C672" s="30"/>
     </row>
     <row r="673" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A673" s="30"/>
-      <c r="C673" s="31"/>
+      <c r="A673" s="29"/>
+      <c r="C673" s="30"/>
     </row>
     <row r="674" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A674" s="30"/>
-      <c r="C674" s="31"/>
+      <c r="A674" s="29"/>
+      <c r="C674" s="30"/>
     </row>
     <row r="675" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A675" s="30"/>
-      <c r="C675" s="31"/>
+      <c r="A675" s="29"/>
+      <c r="C675" s="30"/>
     </row>
     <row r="676" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="30"/>
-      <c r="C676" s="31"/>
+      <c r="A676" s="29"/>
+      <c r="C676" s="30"/>
     </row>
     <row r="677" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A677" s="30"/>
-      <c r="C677" s="31"/>
+      <c r="A677" s="29"/>
+      <c r="C677" s="30"/>
     </row>
     <row r="678" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A678" s="30"/>
-      <c r="C678" s="31"/>
+      <c r="A678" s="29"/>
+      <c r="C678" s="30"/>
     </row>
     <row r="679" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A679" s="30"/>
-      <c r="C679" s="31"/>
+      <c r="A679" s="29"/>
+      <c r="C679" s="30"/>
     </row>
     <row r="680" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A680" s="30"/>
-      <c r="C680" s="31"/>
+      <c r="A680" s="29"/>
+      <c r="C680" s="30"/>
     </row>
     <row r="681" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A681" s="30"/>
-      <c r="C681" s="31"/>
+      <c r="A681" s="29"/>
+      <c r="C681" s="30"/>
     </row>
     <row r="682" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="30"/>
-      <c r="C682" s="31"/>
+      <c r="A682" s="29"/>
+      <c r="C682" s="30"/>
     </row>
     <row r="683" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="30"/>
-      <c r="C683" s="31"/>
+      <c r="A683" s="29"/>
+      <c r="C683" s="30"/>
     </row>
     <row r="684" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A684" s="30"/>
-      <c r="C684" s="31"/>
+      <c r="A684" s="29"/>
+      <c r="C684" s="30"/>
     </row>
     <row r="685" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A685" s="30"/>
-      <c r="C685" s="31"/>
+      <c r="A685" s="29"/>
+      <c r="C685" s="30"/>
     </row>
     <row r="686" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A686" s="30"/>
-      <c r="C686" s="31"/>
+      <c r="A686" s="29"/>
+      <c r="C686" s="30"/>
     </row>
     <row r="687" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A687" s="30"/>
-      <c r="C687" s="31"/>
+      <c r="A687" s="29"/>
+      <c r="C687" s="30"/>
     </row>
     <row r="688" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A688" s="30"/>
-      <c r="C688" s="31"/>
+      <c r="A688" s="29"/>
+      <c r="C688" s="30"/>
     </row>
     <row r="689" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="30"/>
-      <c r="C689" s="31"/>
+      <c r="A689" s="29"/>
+      <c r="C689" s="30"/>
     </row>
     <row r="690" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A690" s="30"/>
-      <c r="C690" s="31"/>
+      <c r="A690" s="29"/>
+      <c r="C690" s="30"/>
     </row>
     <row r="691" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A691" s="30"/>
-      <c r="C691" s="31"/>
+      <c r="A691" s="29"/>
+      <c r="C691" s="30"/>
     </row>
     <row r="692" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A692" s="30"/>
-      <c r="C692" s="31"/>
+      <c r="A692" s="29"/>
+      <c r="C692" s="30"/>
     </row>
     <row r="693" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A693" s="30"/>
-      <c r="C693" s="31"/>
+      <c r="A693" s="29"/>
+      <c r="C693" s="30"/>
     </row>
     <row r="694" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A694" s="30"/>
-      <c r="C694" s="31"/>
+      <c r="A694" s="29"/>
+      <c r="C694" s="30"/>
     </row>
     <row r="695" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A695" s="30"/>
-      <c r="C695" s="31"/>
+      <c r="A695" s="29"/>
+      <c r="C695" s="30"/>
     </row>
     <row r="696" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A696" s="30"/>
-      <c r="C696" s="31"/>
+      <c r="A696" s="29"/>
+      <c r="C696" s="30"/>
     </row>
     <row r="697" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A697" s="30"/>
-      <c r="C697" s="31"/>
+      <c r="A697" s="29"/>
+      <c r="C697" s="30"/>
     </row>
     <row r="698" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A698" s="30"/>
-      <c r="C698" s="31"/>
+      <c r="A698" s="29"/>
+      <c r="C698" s="30"/>
     </row>
     <row r="699" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A699" s="30"/>
-      <c r="C699" s="31"/>
+      <c r="A699" s="29"/>
+      <c r="C699" s="30"/>
     </row>
     <row r="700" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A700" s="30"/>
-      <c r="C700" s="31"/>
+      <c r="A700" s="29"/>
+      <c r="C700" s="30"/>
     </row>
     <row r="701" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A701" s="30"/>
-      <c r="C701" s="31"/>
+      <c r="A701" s="29"/>
+      <c r="C701" s="30"/>
     </row>
     <row r="702" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A702" s="30"/>
-      <c r="C702" s="31"/>
+      <c r="A702" s="29"/>
+      <c r="C702" s="30"/>
     </row>
     <row r="703" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A703" s="30"/>
-      <c r="C703" s="31"/>
+      <c r="A703" s="29"/>
+      <c r="C703" s="30"/>
     </row>
     <row r="704" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A704" s="30"/>
-      <c r="C704" s="31"/>
+      <c r="A704" s="29"/>
+      <c r="C704" s="30"/>
     </row>
     <row r="705" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A705" s="30"/>
-      <c r="C705" s="31"/>
+      <c r="A705" s="29"/>
+      <c r="C705" s="30"/>
     </row>
     <row r="706" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A706" s="30"/>
-      <c r="C706" s="31"/>
+      <c r="A706" s="29"/>
+      <c r="C706" s="30"/>
     </row>
     <row r="707" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A707" s="30"/>
-      <c r="C707" s="31"/>
+      <c r="A707" s="29"/>
+      <c r="C707" s="30"/>
     </row>
     <row r="708" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A708" s="30"/>
-      <c r="C708" s="31"/>
+      <c r="A708" s="29"/>
+      <c r="C708" s="30"/>
     </row>
     <row r="709" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="30"/>
-      <c r="C709" s="31"/>
+      <c r="A709" s="29"/>
+      <c r="C709" s="30"/>
     </row>
     <row r="710" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A710" s="30"/>
-      <c r="C710" s="31"/>
+      <c r="A710" s="29"/>
+      <c r="C710" s="30"/>
     </row>
     <row r="711" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A711" s="30"/>
-      <c r="C711" s="31"/>
+      <c r="A711" s="29"/>
+      <c r="C711" s="30"/>
     </row>
     <row r="712" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A712" s="30"/>
-      <c r="C712" s="31"/>
+      <c r="A712" s="29"/>
+      <c r="C712" s="30"/>
     </row>
     <row r="713" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A713" s="30"/>
-      <c r="C713" s="31"/>
+      <c r="A713" s="29"/>
+      <c r="C713" s="30"/>
     </row>
     <row r="714" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="30"/>
-      <c r="C714" s="31"/>
+      <c r="A714" s="29"/>
+      <c r="C714" s="30"/>
     </row>
     <row r="715" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A715" s="30"/>
-      <c r="C715" s="31"/>
+      <c r="A715" s="29"/>
+      <c r="C715" s="30"/>
     </row>
     <row r="716" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="30"/>
-      <c r="C716" s="31"/>
+      <c r="A716" s="29"/>
+      <c r="C716" s="30"/>
     </row>
     <row r="717" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="30"/>
-      <c r="C717" s="31"/>
+      <c r="A717" s="29"/>
+      <c r="C717" s="30"/>
     </row>
     <row r="718" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="30"/>
-      <c r="C718" s="31"/>
+      <c r="A718" s="29"/>
+      <c r="C718" s="30"/>
     </row>
     <row r="719" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="30"/>
-      <c r="C719" s="31"/>
+      <c r="A719" s="29"/>
+      <c r="C719" s="30"/>
     </row>
     <row r="720" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A720" s="30"/>
-      <c r="C720" s="31"/>
+      <c r="A720" s="29"/>
+      <c r="C720" s="30"/>
     </row>
     <row r="721" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="30"/>
-      <c r="C721" s="31"/>
+      <c r="A721" s="29"/>
+      <c r="C721" s="30"/>
     </row>
     <row r="722" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A722" s="30"/>
-      <c r="C722" s="31"/>
+      <c r="A722" s="29"/>
+      <c r="C722" s="30"/>
     </row>
     <row r="723" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A723" s="30"/>
-      <c r="C723" s="31"/>
+      <c r="A723" s="29"/>
+      <c r="C723" s="30"/>
     </row>
     <row r="724" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A724" s="30"/>
-      <c r="C724" s="31"/>
+      <c r="A724" s="29"/>
+      <c r="C724" s="30"/>
     </row>
     <row r="725" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A725" s="30"/>
-      <c r="C725" s="31"/>
+      <c r="A725" s="29"/>
+      <c r="C725" s="30"/>
     </row>
     <row r="726" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A726" s="30"/>
-      <c r="C726" s="31"/>
+      <c r="A726" s="29"/>
+      <c r="C726" s="30"/>
     </row>
     <row r="727" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A727" s="30"/>
-      <c r="C727" s="31"/>
+      <c r="A727" s="29"/>
+      <c r="C727" s="30"/>
     </row>
     <row r="728" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A728" s="30"/>
-      <c r="C728" s="31"/>
+      <c r="A728" s="29"/>
+      <c r="C728" s="30"/>
     </row>
     <row r="729" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A729" s="30"/>
-      <c r="C729" s="31"/>
+      <c r="A729" s="29"/>
+      <c r="C729" s="30"/>
     </row>
     <row r="730" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A730" s="30"/>
-      <c r="C730" s="31"/>
+      <c r="A730" s="29"/>
+      <c r="C730" s="30"/>
     </row>
     <row r="731" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A731" s="30"/>
-      <c r="C731" s="31"/>
+      <c r="A731" s="29"/>
+      <c r="C731" s="30"/>
     </row>
     <row r="732" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A732" s="30"/>
-      <c r="C732" s="31"/>
+      <c r="A732" s="29"/>
+      <c r="C732" s="30"/>
     </row>
     <row r="733" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A733" s="30"/>
-      <c r="C733" s="31"/>
+      <c r="A733" s="29"/>
+      <c r="C733" s="30"/>
     </row>
     <row r="734" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="30"/>
-      <c r="C734" s="31"/>
+      <c r="A734" s="29"/>
+      <c r="C734" s="30"/>
     </row>
     <row r="735" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A735" s="30"/>
-      <c r="C735" s="31"/>
+      <c r="A735" s="29"/>
+      <c r="C735" s="30"/>
     </row>
     <row r="736" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="30"/>
-      <c r="C736" s="31"/>
+      <c r="A736" s="29"/>
+      <c r="C736" s="30"/>
     </row>
     <row r="737" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A737" s="30"/>
-      <c r="C737" s="31"/>
+      <c r="A737" s="29"/>
+      <c r="C737" s="30"/>
     </row>
     <row r="738" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="30"/>
-      <c r="C738" s="31"/>
+      <c r="A738" s="29"/>
+      <c r="C738" s="30"/>
     </row>
     <row r="739" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="30"/>
-      <c r="C739" s="31"/>
+      <c r="A739" s="29"/>
+      <c r="C739" s="30"/>
     </row>
     <row r="740" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A740" s="30"/>
-      <c r="C740" s="31"/>
+      <c r="A740" s="29"/>
+      <c r="C740" s="30"/>
     </row>
     <row r="741" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="30"/>
-      <c r="C741" s="31"/>
+      <c r="A741" s="29"/>
+      <c r="C741" s="30"/>
     </row>
     <row r="742" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="30"/>
-      <c r="C742" s="31"/>
+      <c r="A742" s="29"/>
+      <c r="C742" s="30"/>
     </row>
     <row r="743" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="30"/>
-      <c r="C743" s="31"/>
+      <c r="A743" s="29"/>
+      <c r="C743" s="30"/>
     </row>
     <row r="744" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="30"/>
-      <c r="C744" s="31"/>
+      <c r="A744" s="29"/>
+      <c r="C744" s="30"/>
     </row>
     <row r="745" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="30"/>
-      <c r="C745" s="31"/>
+      <c r="A745" s="29"/>
+      <c r="C745" s="30"/>
     </row>
     <row r="746" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="30"/>
-      <c r="C746" s="31"/>
+      <c r="A746" s="29"/>
+      <c r="C746" s="30"/>
     </row>
     <row r="747" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="30"/>
-      <c r="C747" s="31"/>
+      <c r="A747" s="29"/>
+      <c r="C747" s="30"/>
     </row>
     <row r="748" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="30"/>
-      <c r="C748" s="31"/>
+      <c r="A748" s="29"/>
+      <c r="C748" s="30"/>
     </row>
     <row r="749" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="30"/>
-      <c r="C749" s="31"/>
+      <c r="A749" s="29"/>
+      <c r="C749" s="30"/>
     </row>
     <row r="750" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="30"/>
-      <c r="C750" s="31"/>
+      <c r="A750" s="29"/>
+      <c r="C750" s="30"/>
     </row>
     <row r="751" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A751" s="30"/>
-      <c r="C751" s="31"/>
+      <c r="A751" s="29"/>
+      <c r="C751" s="30"/>
     </row>
     <row r="752" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A752" s="30"/>
-      <c r="C752" s="31"/>
+      <c r="A752" s="29"/>
+      <c r="C752" s="30"/>
     </row>
     <row r="753" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A753" s="30"/>
-      <c r="C753" s="31"/>
+      <c r="A753" s="29"/>
+      <c r="C753" s="30"/>
     </row>
     <row r="754" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A754" s="30"/>
-      <c r="C754" s="31"/>
+      <c r="A754" s="29"/>
+      <c r="C754" s="30"/>
     </row>
     <row r="755" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A755" s="30"/>
-      <c r="C755" s="31"/>
+      <c r="A755" s="29"/>
+      <c r="C755" s="30"/>
     </row>
     <row r="756" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A756" s="30"/>
-      <c r="C756" s="31"/>
+      <c r="A756" s="29"/>
+      <c r="C756" s="30"/>
     </row>
     <row r="757" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A757" s="30"/>
-      <c r="C757" s="31"/>
+      <c r="A757" s="29"/>
+      <c r="C757" s="30"/>
     </row>
     <row r="758" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A758" s="30"/>
-      <c r="C758" s="31"/>
+      <c r="A758" s="29"/>
+      <c r="C758" s="30"/>
     </row>
     <row r="759" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A759" s="30"/>
-      <c r="C759" s="31"/>
+      <c r="A759" s="29"/>
+      <c r="C759" s="30"/>
     </row>
     <row r="760" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A760" s="30"/>
-      <c r="C760" s="31"/>
+      <c r="A760" s="29"/>
+      <c r="C760" s="30"/>
     </row>
     <row r="761" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A761" s="30"/>
-      <c r="C761" s="31"/>
+      <c r="A761" s="29"/>
+      <c r="C761" s="30"/>
     </row>
     <row r="762" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A762" s="30"/>
-      <c r="C762" s="31"/>
+      <c r="A762" s="29"/>
+      <c r="C762" s="30"/>
     </row>
     <row r="763" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A763" s="30"/>
-      <c r="C763" s="31"/>
+      <c r="A763" s="29"/>
+      <c r="C763" s="30"/>
     </row>
     <row r="764" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="30"/>
-      <c r="C764" s="31"/>
+      <c r="A764" s="29"/>
+      <c r="C764" s="30"/>
     </row>
     <row r="765" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A765" s="30"/>
-      <c r="C765" s="31"/>
+      <c r="A765" s="29"/>
+      <c r="C765" s="30"/>
     </row>
     <row r="766" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A766" s="30"/>
-      <c r="C766" s="31"/>
+      <c r="A766" s="29"/>
+      <c r="C766" s="30"/>
     </row>
     <row r="767" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A767" s="30"/>
-      <c r="C767" s="31"/>
+      <c r="A767" s="29"/>
+      <c r="C767" s="30"/>
     </row>
     <row r="768" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A768" s="30"/>
-      <c r="C768" s="31"/>
+      <c r="A768" s="29"/>
+      <c r="C768" s="30"/>
     </row>
     <row r="769" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A769" s="30"/>
-      <c r="C769" s="31"/>
+      <c r="A769" s="29"/>
+      <c r="C769" s="30"/>
     </row>
     <row r="770" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A770" s="30"/>
-      <c r="C770" s="31"/>
+      <c r="A770" s="29"/>
+      <c r="C770" s="30"/>
     </row>
     <row r="771" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A771" s="30"/>
-      <c r="C771" s="31"/>
+      <c r="A771" s="29"/>
+      <c r="C771" s="30"/>
     </row>
     <row r="772" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A772" s="30"/>
-      <c r="C772" s="31"/>
+      <c r="A772" s="29"/>
+      <c r="C772" s="30"/>
     </row>
     <row r="773" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A773" s="30"/>
-      <c r="C773" s="31"/>
+      <c r="A773" s="29"/>
+      <c r="C773" s="30"/>
     </row>
     <row r="774" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A774" s="30"/>
-      <c r="C774" s="31"/>
+      <c r="A774" s="29"/>
+      <c r="C774" s="30"/>
     </row>
     <row r="775" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A775" s="30"/>
-      <c r="C775" s="31"/>
+      <c r="A775" s="29"/>
+      <c r="C775" s="30"/>
     </row>
     <row r="776" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A776" s="30"/>
-      <c r="C776" s="31"/>
+      <c r="A776" s="29"/>
+      <c r="C776" s="30"/>
     </row>
     <row r="777" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A777" s="30"/>
-      <c r="C777" s="31"/>
+      <c r="A777" s="29"/>
+      <c r="C777" s="30"/>
     </row>
     <row r="778" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A778" s="30"/>
-      <c r="C778" s="31"/>
+      <c r="A778" s="29"/>
+      <c r="C778" s="30"/>
     </row>
     <row r="779" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A779" s="30"/>
-      <c r="C779" s="31"/>
+      <c r="A779" s="29"/>
+      <c r="C779" s="30"/>
     </row>
     <row r="780" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A780" s="30"/>
-      <c r="C780" s="31"/>
+      <c r="A780" s="29"/>
+      <c r="C780" s="30"/>
     </row>
     <row r="781" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A781" s="30"/>
-      <c r="C781" s="31"/>
+      <c r="A781" s="29"/>
+      <c r="C781" s="30"/>
     </row>
     <row r="782" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A782" s="30"/>
-      <c r="C782" s="31"/>
+      <c r="A782" s="29"/>
+      <c r="C782" s="30"/>
     </row>
     <row r="783" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A783" s="30"/>
-      <c r="C783" s="31"/>
+      <c r="A783" s="29"/>
+      <c r="C783" s="30"/>
     </row>
     <row r="784" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A784" s="30"/>
-      <c r="C784" s="31"/>
+      <c r="A784" s="29"/>
+      <c r="C784" s="30"/>
     </row>
     <row r="785" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A785" s="30"/>
-      <c r="C785" s="31"/>
+      <c r="A785" s="29"/>
+      <c r="C785" s="30"/>
     </row>
     <row r="786" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A786" s="30"/>
-      <c r="C786" s="31"/>
+      <c r="A786" s="29"/>
+      <c r="C786" s="30"/>
     </row>
     <row r="787" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A787" s="30"/>
-      <c r="C787" s="31"/>
+      <c r="A787" s="29"/>
+      <c r="C787" s="30"/>
     </row>
     <row r="788" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A788" s="30"/>
-      <c r="C788" s="31"/>
+      <c r="A788" s="29"/>
+      <c r="C788" s="30"/>
     </row>
     <row r="789" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A789" s="30"/>
-      <c r="C789" s="31"/>
+      <c r="A789" s="29"/>
+      <c r="C789" s="30"/>
     </row>
     <row r="790" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A790" s="30"/>
-      <c r="C790" s="31"/>
+      <c r="A790" s="29"/>
+      <c r="C790" s="30"/>
     </row>
     <row r="791" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A791" s="30"/>
-      <c r="C791" s="31"/>
+      <c r="A791" s="29"/>
+      <c r="C791" s="30"/>
     </row>
     <row r="792" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A792" s="30"/>
-      <c r="C792" s="31"/>
+      <c r="A792" s="29"/>
+      <c r="C792" s="30"/>
     </row>
     <row r="793" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A793" s="30"/>
-      <c r="C793" s="31"/>
+      <c r="A793" s="29"/>
+      <c r="C793" s="30"/>
     </row>
     <row r="794" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A794" s="30"/>
-      <c r="C794" s="31"/>
+      <c r="A794" s="29"/>
+      <c r="C794" s="30"/>
     </row>
     <row r="795" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A795" s="30"/>
-      <c r="C795" s="31"/>
+      <c r="A795" s="29"/>
+      <c r="C795" s="30"/>
     </row>
     <row r="796" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="30"/>
-      <c r="C796" s="31"/>
+      <c r="A796" s="29"/>
+      <c r="C796" s="30"/>
     </row>
     <row r="797" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A797" s="30"/>
-      <c r="C797" s="31"/>
+      <c r="A797" s="29"/>
+      <c r="C797" s="30"/>
     </row>
     <row r="798" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A798" s="30"/>
-      <c r="C798" s="31"/>
+      <c r="A798" s="29"/>
+      <c r="C798" s="30"/>
     </row>
     <row r="799" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A799" s="30"/>
-      <c r="C799" s="31"/>
+      <c r="A799" s="29"/>
+      <c r="C799" s="30"/>
     </row>
     <row r="800" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A800" s="30"/>
-      <c r="C800" s="31"/>
+      <c r="A800" s="29"/>
+      <c r="C800" s="30"/>
     </row>
     <row r="801" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A801" s="30"/>
-      <c r="C801" s="31"/>
+      <c r="A801" s="29"/>
+      <c r="C801" s="30"/>
     </row>
     <row r="802" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A802" s="30"/>
-      <c r="C802" s="31"/>
+      <c r="A802" s="29"/>
+      <c r="C802" s="30"/>
     </row>
     <row r="803" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A803" s="30"/>
-      <c r="C803" s="31"/>
+      <c r="A803" s="29"/>
+      <c r="C803" s="30"/>
     </row>
     <row r="804" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A804" s="30"/>
-      <c r="C804" s="31"/>
+      <c r="A804" s="29"/>
+      <c r="C804" s="30"/>
     </row>
     <row r="805" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A805" s="30"/>
-      <c r="C805" s="31"/>
+      <c r="A805" s="29"/>
+      <c r="C805" s="30"/>
     </row>
     <row r="806" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A806" s="30"/>
-      <c r="C806" s="31"/>
+      <c r="A806" s="29"/>
+      <c r="C806" s="30"/>
     </row>
     <row r="807" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A807" s="30"/>
-      <c r="C807" s="31"/>
+      <c r="A807" s="29"/>
+      <c r="C807" s="30"/>
     </row>
     <row r="808" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A808" s="30"/>
-      <c r="C808" s="31"/>
+      <c r="A808" s="29"/>
+      <c r="C808" s="30"/>
     </row>
     <row r="809" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A809" s="30"/>
-      <c r="C809" s="31"/>
+      <c r="A809" s="29"/>
+      <c r="C809" s="30"/>
     </row>
     <row r="810" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A810" s="30"/>
-      <c r="C810" s="31"/>
+      <c r="A810" s="29"/>
+      <c r="C810" s="30"/>
     </row>
     <row r="811" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A811" s="30"/>
-      <c r="C811" s="31"/>
+      <c r="A811" s="29"/>
+      <c r="C811" s="30"/>
     </row>
     <row r="812" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A812" s="30"/>
-      <c r="C812" s="31"/>
+      <c r="A812" s="29"/>
+      <c r="C812" s="30"/>
     </row>
     <row r="813" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A813" s="30"/>
-      <c r="C813" s="31"/>
+      <c r="A813" s="29"/>
+      <c r="C813" s="30"/>
     </row>
     <row r="814" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A814" s="30"/>
-      <c r="C814" s="31"/>
+      <c r="A814" s="29"/>
+      <c r="C814" s="30"/>
     </row>
     <row r="815" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A815" s="30"/>
-      <c r="C815" s="31"/>
+      <c r="A815" s="29"/>
+      <c r="C815" s="30"/>
     </row>
     <row r="816" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A816" s="30"/>
-      <c r="C816" s="31"/>
+      <c r="A816" s="29"/>
+      <c r="C816" s="30"/>
     </row>
     <row r="817" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A817" s="30"/>
-      <c r="C817" s="31"/>
+      <c r="A817" s="29"/>
+      <c r="C817" s="30"/>
     </row>
     <row r="818" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A818" s="30"/>
-      <c r="C818" s="31"/>
+      <c r="A818" s="29"/>
+      <c r="C818" s="30"/>
     </row>
     <row r="819" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A819" s="30"/>
-      <c r="C819" s="31"/>
+      <c r="A819" s="29"/>
+      <c r="C819" s="30"/>
     </row>
     <row r="820" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A820" s="30"/>
-      <c r="C820" s="31"/>
+      <c r="A820" s="29"/>
+      <c r="C820" s="30"/>
     </row>
     <row r="821" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A821" s="30"/>
-      <c r="C821" s="31"/>
+      <c r="A821" s="29"/>
+      <c r="C821" s="30"/>
     </row>
     <row r="822" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A822" s="30"/>
-      <c r="C822" s="31"/>
+      <c r="A822" s="29"/>
+      <c r="C822" s="30"/>
     </row>
     <row r="823" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A823" s="30"/>
-      <c r="C823" s="31"/>
+      <c r="A823" s="29"/>
+      <c r="C823" s="30"/>
     </row>
     <row r="824" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A824" s="30"/>
-      <c r="C824" s="31"/>
+      <c r="A824" s="29"/>
+      <c r="C824" s="30"/>
     </row>
     <row r="825" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A825" s="30"/>
-      <c r="C825" s="31"/>
+      <c r="A825" s="29"/>
+      <c r="C825" s="30"/>
     </row>
     <row r="826" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A826" s="30"/>
-      <c r="C826" s="31"/>
+      <c r="A826" s="29"/>
+      <c r="C826" s="30"/>
     </row>
     <row r="827" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A827" s="30"/>
-      <c r="C827" s="31"/>
+      <c r="A827" s="29"/>
+      <c r="C827" s="30"/>
     </row>
     <row r="828" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A828" s="30"/>
-      <c r="C828" s="31"/>
+      <c r="A828" s="29"/>
+      <c r="C828" s="30"/>
     </row>
     <row r="829" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A829" s="30"/>
-      <c r="C829" s="31"/>
+      <c r="A829" s="29"/>
+      <c r="C829" s="30"/>
     </row>
     <row r="830" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A830" s="30"/>
-      <c r="C830" s="31"/>
+      <c r="A830" s="29"/>
+      <c r="C830" s="30"/>
     </row>
     <row r="831" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A831" s="30"/>
-      <c r="C831" s="31"/>
+      <c r="A831" s="29"/>
+      <c r="C831" s="30"/>
     </row>
     <row r="832" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A832" s="30"/>
-      <c r="C832" s="31"/>
+      <c r="A832" s="29"/>
+      <c r="C832" s="30"/>
     </row>
     <row r="833" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A833" s="30"/>
-      <c r="C833" s="31"/>
+      <c r="A833" s="29"/>
+      <c r="C833" s="30"/>
     </row>
     <row r="834" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A834" s="30"/>
-      <c r="C834" s="31"/>
+      <c r="A834" s="29"/>
+      <c r="C834" s="30"/>
     </row>
     <row r="835" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A835" s="30"/>
-      <c r="C835" s="31"/>
+      <c r="A835" s="29"/>
+      <c r="C835" s="30"/>
     </row>
     <row r="836" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A836" s="30"/>
-      <c r="C836" s="31"/>
+      <c r="A836" s="29"/>
+      <c r="C836" s="30"/>
     </row>
     <row r="837" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A837" s="30"/>
-      <c r="C837" s="31"/>
+      <c r="A837" s="29"/>
+      <c r="C837" s="30"/>
     </row>
     <row r="838" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A838" s="30"/>
-      <c r="C838" s="31"/>
+      <c r="A838" s="29"/>
+      <c r="C838" s="30"/>
     </row>
     <row r="839" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A839" s="30"/>
-      <c r="C839" s="31"/>
+      <c r="A839" s="29"/>
+      <c r="C839" s="30"/>
     </row>
     <row r="840" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A840" s="30"/>
-      <c r="C840" s="31"/>
+      <c r="A840" s="29"/>
+      <c r="C840" s="30"/>
     </row>
     <row r="841" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A841" s="30"/>
-      <c r="C841" s="31"/>
+      <c r="A841" s="29"/>
+      <c r="C841" s="30"/>
     </row>
     <row r="842" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A842" s="30"/>
-      <c r="C842" s="31"/>
+      <c r="A842" s="29"/>
+      <c r="C842" s="30"/>
     </row>
     <row r="843" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A843" s="30"/>
-      <c r="C843" s="31"/>
+      <c r="A843" s="29"/>
+      <c r="C843" s="30"/>
     </row>
     <row r="844" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A844" s="30"/>
-      <c r="C844" s="31"/>
+      <c r="A844" s="29"/>
+      <c r="C844" s="30"/>
     </row>
     <row r="845" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A845" s="30"/>
-      <c r="C845" s="31"/>
+      <c r="A845" s="29"/>
+      <c r="C845" s="30"/>
     </row>
     <row r="846" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A846" s="30"/>
-      <c r="C846" s="31"/>
+      <c r="A846" s="29"/>
+      <c r="C846" s="30"/>
     </row>
     <row r="847" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A847" s="30"/>
-      <c r="C847" s="31"/>
+      <c r="A847" s="29"/>
+      <c r="C847" s="30"/>
     </row>
     <row r="848" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A848" s="30"/>
-      <c r="C848" s="31"/>
+      <c r="A848" s="29"/>
+      <c r="C848" s="30"/>
     </row>
     <row r="849" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A849" s="30"/>
-      <c r="C849" s="31"/>
+      <c r="A849" s="29"/>
+      <c r="C849" s="30"/>
     </row>
     <row r="850" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A850" s="30"/>
-      <c r="C850" s="31"/>
+      <c r="A850" s="29"/>
+      <c r="C850" s="30"/>
     </row>
     <row r="851" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A851" s="30"/>
-      <c r="C851" s="31"/>
+      <c r="A851" s="29"/>
+      <c r="C851" s="30"/>
     </row>
     <row r="852" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A852" s="30"/>
-      <c r="C852" s="31"/>
+      <c r="A852" s="29"/>
+      <c r="C852" s="30"/>
     </row>
     <row r="853" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A853" s="30"/>
-      <c r="C853" s="31"/>
+      <c r="A853" s="29"/>
+      <c r="C853" s="30"/>
     </row>
     <row r="854" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A854" s="30"/>
-      <c r="C854" s="31"/>
+      <c r="A854" s="29"/>
+      <c r="C854" s="30"/>
     </row>
     <row r="855" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A855" s="30"/>
-      <c r="C855" s="31"/>
+      <c r="A855" s="29"/>
+      <c r="C855" s="30"/>
     </row>
     <row r="856" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A856" s="30"/>
-      <c r="C856" s="31"/>
+      <c r="A856" s="29"/>
+      <c r="C856" s="30"/>
     </row>
     <row r="857" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A857" s="30"/>
-      <c r="C857" s="31"/>
+      <c r="A857" s="29"/>
+      <c r="C857" s="30"/>
     </row>
     <row r="858" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A858" s="30"/>
-      <c r="C858" s="31"/>
+      <c r="A858" s="29"/>
+      <c r="C858" s="30"/>
     </row>
     <row r="859" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A859" s="30"/>
-      <c r="C859" s="31"/>
+      <c r="A859" s="29"/>
+      <c r="C859" s="30"/>
     </row>
     <row r="860" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A860" s="30"/>
-      <c r="C860" s="31"/>
+      <c r="A860" s="29"/>
+      <c r="C860" s="30"/>
     </row>
     <row r="861" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="30"/>
-      <c r="C861" s="31"/>
+      <c r="A861" s="29"/>
+      <c r="C861" s="30"/>
     </row>
     <row r="862" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A862" s="30"/>
-      <c r="C862" s="31"/>
+      <c r="A862" s="29"/>
+      <c r="C862" s="30"/>
     </row>
     <row r="863" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A863" s="30"/>
-      <c r="C863" s="31"/>
+      <c r="A863" s="29"/>
+      <c r="C863" s="30"/>
     </row>
     <row r="864" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A864" s="30"/>
-      <c r="C864" s="31"/>
+      <c r="A864" s="29"/>
+      <c r="C864" s="30"/>
     </row>
     <row r="865" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A865" s="30"/>
-      <c r="C865" s="31"/>
+      <c r="A865" s="29"/>
+      <c r="C865" s="30"/>
     </row>
     <row r="866" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A866" s="30"/>
-      <c r="C866" s="31"/>
+      <c r="A866" s="29"/>
+      <c r="C866" s="30"/>
     </row>
     <row r="867" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A867" s="30"/>
-      <c r="C867" s="31"/>
+      <c r="A867" s="29"/>
+      <c r="C867" s="30"/>
     </row>
     <row r="868" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A868" s="30"/>
-      <c r="C868" s="31"/>
+      <c r="A868" s="29"/>
+      <c r="C868" s="30"/>
     </row>
     <row r="869" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A869" s="30"/>
-      <c r="C869" s="31"/>
+      <c r="A869" s="29"/>
+      <c r="C869" s="30"/>
     </row>
     <row r="870" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A870" s="30"/>
-      <c r="C870" s="31"/>
+      <c r="A870" s="29"/>
+      <c r="C870" s="30"/>
     </row>
     <row r="871" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A871" s="30"/>
-      <c r="C871" s="31"/>
+      <c r="A871" s="29"/>
+      <c r="C871" s="30"/>
     </row>
     <row r="872" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A872" s="30"/>
-      <c r="C872" s="31"/>
+      <c r="A872" s="29"/>
+      <c r="C872" s="30"/>
     </row>
     <row r="873" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A873" s="30"/>
-      <c r="C873" s="31"/>
+      <c r="A873" s="29"/>
+      <c r="C873" s="30"/>
     </row>
     <row r="874" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A874" s="30"/>
-      <c r="C874" s="31"/>
+      <c r="A874" s="29"/>
+      <c r="C874" s="30"/>
     </row>
     <row r="875" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A875" s="30"/>
-      <c r="C875" s="31"/>
+      <c r="A875" s="29"/>
+      <c r="C875" s="30"/>
     </row>
     <row r="876" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A876" s="30"/>
-      <c r="C876" s="31"/>
+      <c r="A876" s="29"/>
+      <c r="C876" s="30"/>
     </row>
     <row r="877" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A877" s="30"/>
-      <c r="C877" s="31"/>
+      <c r="A877" s="29"/>
+      <c r="C877" s="30"/>
     </row>
     <row r="878" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A878" s="30"/>
-      <c r="C878" s="31"/>
+      <c r="A878" s="29"/>
+      <c r="C878" s="30"/>
     </row>
     <row r="879" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A879" s="30"/>
-      <c r="C879" s="31"/>
+      <c r="A879" s="29"/>
+      <c r="C879" s="30"/>
     </row>
     <row r="880" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A880" s="30"/>
-      <c r="C880" s="31"/>
+      <c r="A880" s="29"/>
+      <c r="C880" s="30"/>
     </row>
     <row r="881" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A881" s="30"/>
-      <c r="C881" s="31"/>
+      <c r="A881" s="29"/>
+      <c r="C881" s="30"/>
     </row>
     <row r="882" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A882" s="30"/>
-      <c r="C882" s="31"/>
+      <c r="A882" s="29"/>
+      <c r="C882" s="30"/>
     </row>
     <row r="883" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A883" s="30"/>
-      <c r="C883" s="31"/>
+      <c r="A883" s="29"/>
+      <c r="C883" s="30"/>
     </row>
     <row r="884" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A884" s="30"/>
-      <c r="C884" s="31"/>
+      <c r="A884" s="29"/>
+      <c r="C884" s="30"/>
     </row>
     <row r="885" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A885" s="30"/>
-      <c r="C885" s="31"/>
+      <c r="A885" s="29"/>
+      <c r="C885" s="30"/>
     </row>
     <row r="886" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A886" s="30"/>
-      <c r="C886" s="31"/>
+      <c r="A886" s="29"/>
+      <c r="C886" s="30"/>
     </row>
     <row r="887" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A887" s="30"/>
-      <c r="C887" s="31"/>
+      <c r="A887" s="29"/>
+      <c r="C887" s="30"/>
     </row>
     <row r="888" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A888" s="30"/>
-      <c r="C888" s="31"/>
+      <c r="A888" s="29"/>
+      <c r="C888" s="30"/>
     </row>
     <row r="889" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A889" s="30"/>
-      <c r="C889" s="31"/>
+      <c r="A889" s="29"/>
+      <c r="C889" s="30"/>
     </row>
     <row r="890" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A890" s="30"/>
-      <c r="C890" s="31"/>
+      <c r="A890" s="29"/>
+      <c r="C890" s="30"/>
     </row>
     <row r="891" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A891" s="30"/>
-      <c r="C891" s="31"/>
+      <c r="A891" s="29"/>
+      <c r="C891" s="30"/>
     </row>
     <row r="892" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A892" s="30"/>
-      <c r="C892" s="31"/>
+      <c r="A892" s="29"/>
+      <c r="C892" s="30"/>
     </row>
     <row r="893" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A893" s="30"/>
-      <c r="C893" s="31"/>
+      <c r="A893" s="29"/>
+      <c r="C893" s="30"/>
     </row>
     <row r="894" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A894" s="30"/>
-      <c r="C894" s="31"/>
+      <c r="A894" s="29"/>
+      <c r="C894" s="30"/>
     </row>
     <row r="895" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A895" s="30"/>
-      <c r="C895" s="31"/>
+      <c r="A895" s="29"/>
+      <c r="C895" s="30"/>
     </row>
     <row r="896" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A896" s="30"/>
-      <c r="C896" s="31"/>
+      <c r="A896" s="29"/>
+      <c r="C896" s="30"/>
     </row>
     <row r="897" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A897" s="30"/>
-      <c r="C897" s="31"/>
+      <c r="A897" s="29"/>
+      <c r="C897" s="30"/>
     </row>
     <row r="898" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A898" s="30"/>
-      <c r="C898" s="31"/>
+      <c r="A898" s="29"/>
+      <c r="C898" s="30"/>
     </row>
     <row r="899" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A899" s="30"/>
-      <c r="C899" s="31"/>
+      <c r="A899" s="29"/>
+      <c r="C899" s="30"/>
     </row>
     <row r="900" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A900" s="30"/>
-      <c r="C900" s="31"/>
+      <c r="A900" s="29"/>
+      <c r="C900" s="30"/>
     </row>
     <row r="901" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A901" s="30"/>
-      <c r="C901" s="31"/>
+      <c r="A901" s="29"/>
+      <c r="C901" s="30"/>
     </row>
     <row r="902" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A902" s="30"/>
-      <c r="C902" s="31"/>
+      <c r="A902" s="29"/>
+      <c r="C902" s="30"/>
     </row>
     <row r="903" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A903" s="30"/>
-      <c r="C903" s="31"/>
+      <c r="A903" s="29"/>
+      <c r="C903" s="30"/>
     </row>
     <row r="904" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A904" s="30"/>
-      <c r="C904" s="31"/>
+      <c r="A904" s="29"/>
+      <c r="C904" s="30"/>
     </row>
     <row r="905" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A905" s="30"/>
-      <c r="C905" s="31"/>
+      <c r="A905" s="29"/>
+      <c r="C905" s="30"/>
     </row>
     <row r="906" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A906" s="30"/>
-      <c r="C906" s="31"/>
+      <c r="A906" s="29"/>
+      <c r="C906" s="30"/>
     </row>
     <row r="907" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A907" s="30"/>
-      <c r="C907" s="31"/>
+      <c r="A907" s="29"/>
+      <c r="C907" s="30"/>
     </row>
     <row r="908" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A908" s="30"/>
-      <c r="C908" s="31"/>
+      <c r="A908" s="29"/>
+      <c r="C908" s="30"/>
     </row>
     <row r="909" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A909" s="30"/>
-      <c r="C909" s="31"/>
+      <c r="A909" s="29"/>
+      <c r="C909" s="30"/>
     </row>
     <row r="910" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A910" s="30"/>
-      <c r="C910" s="31"/>
+      <c r="A910" s="29"/>
+      <c r="C910" s="30"/>
     </row>
     <row r="911" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A911" s="30"/>
-      <c r="C911" s="31"/>
+      <c r="A911" s="29"/>
+      <c r="C911" s="30"/>
     </row>
     <row r="912" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A912" s="30"/>
-      <c r="C912" s="31"/>
+      <c r="A912" s="29"/>
+      <c r="C912" s="30"/>
     </row>
     <row r="913" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A913" s="30"/>
-      <c r="C913" s="31"/>
+      <c r="A913" s="29"/>
+      <c r="C913" s="30"/>
     </row>
     <row r="914" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A914" s="30"/>
-      <c r="C914" s="31"/>
+      <c r="A914" s="29"/>
+      <c r="C914" s="30"/>
     </row>
     <row r="915" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A915" s="30"/>
-      <c r="C915" s="31"/>
+      <c r="A915" s="29"/>
+      <c r="C915" s="30"/>
     </row>
     <row r="916" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A916" s="30"/>
-      <c r="C916" s="31"/>
+      <c r="A916" s="29"/>
+      <c r="C916" s="30"/>
     </row>
     <row r="917" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A917" s="30"/>
-      <c r="C917" s="31"/>
+      <c r="A917" s="29"/>
+      <c r="C917" s="30"/>
     </row>
     <row r="918" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A918" s="30"/>
-      <c r="C918" s="31"/>
+      <c r="A918" s="29"/>
+      <c r="C918" s="30"/>
     </row>
     <row r="919" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A919" s="30"/>
-      <c r="C919" s="31"/>
+      <c r="A919" s="29"/>
+      <c r="C919" s="30"/>
     </row>
     <row r="920" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A920" s="30"/>
-      <c r="C920" s="31"/>
+      <c r="A920" s="29"/>
+      <c r="C920" s="30"/>
     </row>
     <row r="921" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A921" s="30"/>
-      <c r="C921" s="31"/>
+      <c r="A921" s="29"/>
+      <c r="C921" s="30"/>
     </row>
     <row r="922" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A922" s="30"/>
-      <c r="C922" s="31"/>
+      <c r="A922" s="29"/>
+      <c r="C922" s="30"/>
     </row>
     <row r="923" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A923" s="30"/>
-      <c r="C923" s="31"/>
+      <c r="A923" s="29"/>
+      <c r="C923" s="30"/>
     </row>
     <row r="924" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A924" s="30"/>
-      <c r="C924" s="31"/>
+      <c r="A924" s="29"/>
+      <c r="C924" s="30"/>
     </row>
     <row r="925" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A925" s="30"/>
-      <c r="C925" s="31"/>
+      <c r="A925" s="29"/>
+      <c r="C925" s="30"/>
     </row>
     <row r="926" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A926" s="30"/>
-      <c r="C926" s="31"/>
+      <c r="A926" s="29"/>
+      <c r="C926" s="30"/>
     </row>
     <row r="927" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A927" s="30"/>
-      <c r="C927" s="31"/>
+      <c r="A927" s="29"/>
+      <c r="C927" s="30"/>
     </row>
     <row r="928" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A928" s="30"/>
-      <c r="C928" s="31"/>
+      <c r="A928" s="29"/>
+      <c r="C928" s="30"/>
     </row>
     <row r="929" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A929" s="30"/>
-      <c r="C929" s="31"/>
+      <c r="A929" s="29"/>
+      <c r="C929" s="30"/>
     </row>
     <row r="930" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A930" s="30"/>
-      <c r="C930" s="31"/>
+      <c r="A930" s="29"/>
+      <c r="C930" s="30"/>
     </row>
     <row r="931" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A931" s="30"/>
-      <c r="C931" s="31"/>
+      <c r="A931" s="29"/>
+      <c r="C931" s="30"/>
     </row>
     <row r="932" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="30"/>
-      <c r="C932" s="31"/>
+      <c r="A932" s="29"/>
+      <c r="C932" s="30"/>
     </row>
     <row r="933" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A933" s="30"/>
-      <c r="C933" s="31"/>
+      <c r="A933" s="29"/>
+      <c r="C933" s="30"/>
     </row>
     <row r="934" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A934" s="30"/>
-      <c r="C934" s="31"/>
+      <c r="A934" s="29"/>
+      <c r="C934" s="30"/>
     </row>
     <row r="935" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A935" s="30"/>
-      <c r="C935" s="31"/>
+      <c r="A935" s="29"/>
+      <c r="C935" s="30"/>
     </row>
     <row r="936" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A936" s="30"/>
-      <c r="C936" s="31"/>
+      <c r="A936" s="29"/>
+      <c r="C936" s="30"/>
     </row>
     <row r="937" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A937" s="30"/>
-      <c r="C937" s="31"/>
+      <c r="A937" s="29"/>
+      <c r="C937" s="30"/>
     </row>
     <row r="938" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A938" s="30"/>
-      <c r="C938" s="31"/>
+      <c r="A938" s="29"/>
+      <c r="C938" s="30"/>
     </row>
     <row r="939" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A939" s="30"/>
-      <c r="C939" s="31"/>
+      <c r="A939" s="29"/>
+      <c r="C939" s="30"/>
     </row>
     <row r="940" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A940" s="30"/>
-      <c r="C940" s="31"/>
+      <c r="A940" s="29"/>
+      <c r="C940" s="30"/>
     </row>
     <row r="941" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A941" s="30"/>
-      <c r="C941" s="31"/>
+      <c r="A941" s="29"/>
+      <c r="C941" s="30"/>
     </row>
     <row r="942" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A942" s="30"/>
-      <c r="C942" s="31"/>
+      <c r="A942" s="29"/>
+      <c r="C942" s="30"/>
     </row>
     <row r="943" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A943" s="30"/>
-      <c r="C943" s="31"/>
+      <c r="A943" s="29"/>
+      <c r="C943" s="30"/>
     </row>
     <row r="944" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A944" s="30"/>
-      <c r="C944" s="31"/>
+      <c r="A944" s="29"/>
+      <c r="C944" s="30"/>
     </row>
     <row r="945" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A945" s="30"/>
-      <c r="C945" s="31"/>
+      <c r="A945" s="29"/>
+      <c r="C945" s="30"/>
     </row>
     <row r="946" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A946" s="30"/>
-      <c r="C946" s="31"/>
+      <c r="A946" s="29"/>
+      <c r="C946" s="30"/>
     </row>
     <row r="947" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A947" s="30"/>
-      <c r="C947" s="31"/>
+      <c r="A947" s="29"/>
+      <c r="C947" s="30"/>
     </row>
     <row r="948" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A948" s="30"/>
-      <c r="C948" s="31"/>
+      <c r="A948" s="29"/>
+      <c r="C948" s="30"/>
     </row>
     <row r="949" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A949" s="30"/>
-      <c r="C949" s="31"/>
+      <c r="A949" s="29"/>
+      <c r="C949" s="30"/>
     </row>
     <row r="950" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A950" s="30"/>
-      <c r="C950" s="31"/>
+      <c r="A950" s="29"/>
+      <c r="C950" s="30"/>
     </row>
     <row r="951" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A951" s="30"/>
-      <c r="C951" s="31"/>
+      <c r="A951" s="29"/>
+      <c r="C951" s="30"/>
     </row>
     <row r="952" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A952" s="30"/>
-      <c r="C952" s="31"/>
+      <c r="A952" s="29"/>
+      <c r="C952" s="30"/>
     </row>
     <row r="953" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A953" s="30"/>
-      <c r="C953" s="31"/>
+      <c r="A953" s="29"/>
+      <c r="C953" s="30"/>
     </row>
     <row r="954" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A954" s="30"/>
-      <c r="C954" s="31"/>
+      <c r="A954" s="29"/>
+      <c r="C954" s="30"/>
     </row>
     <row r="955" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A955" s="30"/>
-      <c r="C955" s="31"/>
+      <c r="A955" s="29"/>
+      <c r="C955" s="30"/>
     </row>
     <row r="956" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A956" s="30"/>
-      <c r="C956" s="31"/>
+      <c r="A956" s="29"/>
+      <c r="C956" s="30"/>
     </row>
     <row r="957" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A957" s="30"/>
-      <c r="C957" s="31"/>
+      <c r="A957" s="29"/>
+      <c r="C957" s="30"/>
     </row>
     <row r="958" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A958" s="30"/>
-      <c r="C958" s="31"/>
+      <c r="A958" s="29"/>
+      <c r="C958" s="30"/>
     </row>
     <row r="959" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A959" s="30"/>
-      <c r="C959" s="31"/>
+      <c r="A959" s="29"/>
+      <c r="C959" s="30"/>
     </row>
     <row r="960" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A960" s="30"/>
-      <c r="C960" s="31"/>
+      <c r="A960" s="29"/>
+      <c r="C960" s="30"/>
     </row>
     <row r="961" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A961" s="30"/>
-      <c r="C961" s="31"/>
+      <c r="A961" s="29"/>
+      <c r="C961" s="30"/>
     </row>
     <row r="962" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A962" s="30"/>
-      <c r="C962" s="31"/>
+      <c r="A962" s="29"/>
+      <c r="C962" s="30"/>
     </row>
     <row r="963" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A963" s="30"/>
-      <c r="C963" s="31"/>
+      <c r="A963" s="29"/>
+      <c r="C963" s="30"/>
     </row>
     <row r="964" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A964" s="30"/>
-      <c r="C964" s="31"/>
+      <c r="A964" s="29"/>
+      <c r="C964" s="30"/>
     </row>
     <row r="965" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A965" s="30"/>
-      <c r="C965" s="31"/>
+      <c r="A965" s="29"/>
+      <c r="C965" s="30"/>
     </row>
     <row r="966" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A966" s="30"/>
-      <c r="C966" s="31"/>
+      <c r="A966" s="29"/>
+      <c r="C966" s="30"/>
     </row>
     <row r="967" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A967" s="30"/>
-      <c r="C967" s="31"/>
+      <c r="A967" s="29"/>
+      <c r="C967" s="30"/>
     </row>
     <row r="968" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A968" s="30"/>
-      <c r="C968" s="31"/>
+      <c r="A968" s="29"/>
+      <c r="C968" s="30"/>
     </row>
     <row r="969" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A969" s="30"/>
-      <c r="C969" s="31"/>
+      <c r="A969" s="29"/>
+      <c r="C969" s="30"/>
     </row>
     <row r="970" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A970" s="30"/>
-      <c r="C970" s="31"/>
+      <c r="A970" s="29"/>
+      <c r="C970" s="30"/>
     </row>
     <row r="971" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A971" s="30"/>
-      <c r="C971" s="31"/>
+      <c r="A971" s="29"/>
+      <c r="C971" s="30"/>
     </row>
     <row r="972" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A972" s="30"/>
-      <c r="C972" s="31"/>
+      <c r="A972" s="29"/>
+      <c r="C972" s="30"/>
     </row>
     <row r="973" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A973" s="30"/>
-      <c r="C973" s="31"/>
+      <c r="A973" s="29"/>
+      <c r="C973" s="30"/>
     </row>
     <row r="974" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A974" s="30"/>
-      <c r="C974" s="31"/>
+      <c r="A974" s="29"/>
+      <c r="C974" s="30"/>
     </row>
     <row r="975" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A975" s="30"/>
-      <c r="C975" s="31"/>
+      <c r="A975" s="29"/>
+      <c r="C975" s="30"/>
     </row>
     <row r="976" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A976" s="30"/>
-      <c r="C976" s="31"/>
+      <c r="A976" s="29"/>
+      <c r="C976" s="30"/>
     </row>
     <row r="977" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A977" s="30"/>
-      <c r="C977" s="31"/>
+      <c r="A977" s="29"/>
+      <c r="C977" s="30"/>
     </row>
     <row r="978" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A978" s="30"/>
-      <c r="C978" s="31"/>
+      <c r="A978" s="29"/>
+      <c r="C978" s="30"/>
     </row>
     <row r="979" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A979" s="30"/>
-      <c r="C979" s="31"/>
+      <c r="A979" s="29"/>
+      <c r="C979" s="30"/>
     </row>
     <row r="980" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A980" s="30"/>
-      <c r="C980" s="31"/>
+      <c r="A980" s="29"/>
+      <c r="C980" s="30"/>
     </row>
     <row r="981" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A981" s="30"/>
-      <c r="C981" s="31"/>
+      <c r="A981" s="29"/>
+      <c r="C981" s="30"/>
     </row>
     <row r="982" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A982" s="30"/>
-      <c r="C982" s="31"/>
+      <c r="A982" s="29"/>
+      <c r="C982" s="30"/>
     </row>
     <row r="983" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="30"/>
-      <c r="C983" s="31"/>
+      <c r="A983" s="29"/>
+      <c r="C983" s="30"/>
     </row>
     <row r="984" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="30"/>
-      <c r="C984" s="31"/>
+      <c r="A984" s="29"/>
+      <c r="C984" s="30"/>
     </row>
     <row r="985" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="30"/>
-      <c r="C985" s="31"/>
+      <c r="A985" s="29"/>
+      <c r="C985" s="30"/>
     </row>
     <row r="986" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="30"/>
-      <c r="C986" s="31"/>
+      <c r="A986" s="29"/>
+      <c r="C986" s="30"/>
     </row>
     <row r="987" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="30"/>
-      <c r="C987" s="31"/>
+      <c r="A987" s="29"/>
+      <c r="C987" s="30"/>
     </row>
     <row r="988" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="30"/>
-      <c r="C988" s="31"/>
+      <c r="A988" s="29"/>
+      <c r="C988" s="30"/>
     </row>
     <row r="989" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A989" s="30"/>
-      <c r="C989" s="31"/>
+      <c r="A989" s="29"/>
+      <c r="C989" s="30"/>
     </row>
     <row r="990" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A990" s="30"/>
-      <c r="C990" s="31"/>
+      <c r="A990" s="29"/>
+      <c r="C990" s="30"/>
     </row>
     <row r="991" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A991" s="30"/>
-      <c r="C991" s="31"/>
+      <c r="A991" s="29"/>
+      <c r="C991" s="30"/>
     </row>
     <row r="992" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A992" s="30"/>
-      <c r="C992" s="31"/>
+      <c r="A992" s="29"/>
+      <c r="C992" s="30"/>
     </row>
     <row r="993" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A993" s="30"/>
-      <c r="C993" s="31"/>
+      <c r="A993" s="29"/>
+      <c r="C993" s="30"/>
     </row>
     <row r="994" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A994" s="30"/>
-      <c r="C994" s="31"/>
+      <c r="A994" s="29"/>
+      <c r="C994" s="30"/>
     </row>
     <row r="995" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A995" s="30"/>
-      <c r="C995" s="31"/>
+      <c r="A995" s="29"/>
+      <c r="C995" s="30"/>
     </row>
     <row r="996" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A996" s="30"/>
-      <c r="C996" s="31"/>
+      <c r="A996" s="29"/>
+      <c r="C996" s="30"/>
     </row>
     <row r="997" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A997" s="30"/>
-      <c r="C997" s="31"/>
+      <c r="A997" s="29"/>
+      <c r="C997" s="30"/>
     </row>
     <row r="998" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A998" s="30"/>
-      <c r="C998" s="31"/>
+      <c r="A998" s="29"/>
+      <c r="C998" s="30"/>
     </row>
     <row r="999" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A999" s="30"/>
-      <c r="C999" s="31"/>
+      <c r="A999" s="29"/>
+      <c r="C999" s="30"/>
     </row>
     <row r="1000" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="30"/>
-      <c r="C1000" s="31"/>
+      <c r="A1000" s="29"/>
+      <c r="C1000" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
@@ -21963,6 +21968,6 @@
     <hyperlink ref="C2" r:id="rId93" xr:uid="{E943352E-7AD2-4167-9D3A-46130FF4DCBC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId94"/>
 </worksheet>
 </file>